--- a/DR13CompAnalysis.xlsx
+++ b/DR13CompAnalysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_sdss\perftesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\git\jhu-lsst\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE4D10B-E311-4327-B52B-4CF83EA5DA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7695" activeTab="9"/>
+    <workbookView xWindow="1020" yWindow="1020" windowWidth="27495" windowHeight="16485" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +23,7 @@
     <sheet name="bestdr13du1" sheetId="8" r:id="rId8"/>
     <sheet name="comp_du" sheetId="9" r:id="rId9"/>
     <sheet name="cci " sheetId="10" r:id="rId10"/>
+    <sheet name="queries" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="7" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -30,12 +32,21 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="264">
   <si>
     <t>query</t>
   </si>
@@ -776,18 +787,87 @@
   </si>
   <si>
     <t>total sec:</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query 2: Find all galaxies with blue surface brightness between and 23 and 25 mag 
+		--         per square arcseconds, and -10&lt;super galactic latitude (sgb) &lt;10, 
+		--         and declination less than zero. 
+	</t>
+  </si>
+  <si>
+    <t>Query 1: Find all galaxies without saturated pixels 
+		--        within 1' of a given point of ra=75.327, dec=21.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select ObjID
+		into ##results2
+		from Galaxy
+		where mRrCc_r &gt; 0			-- make sure the log is OK (size = SQRT(mRrCc_r/2.0))
+		and 5*log10(SQRT(ABS(mRrCc_r)/2.0)*0.992574664)+modelMag_g between 23 and 25 -- surface brightness in g
+		and ra between 150 and 270 	-- live with ra/dec till we get galactic coordinates
+		and dec &lt; 60 		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>declare @saturated bigint;							-- initialized “saturated” flag
+		set     @saturated = dbo.fPhotoFlags('saturated');	-- avoids SQL2K optimizer problem
+		select	G.objID, GN.distance  				-- return Galaxy Object ID and 
+	  	into 	##results1   					-- angular distance (arc minutes)
+		from 	Galaxy                     as G  		-- join Galaxies with
+		join fGetNearbyObjEq(195,2.5, 1) as GN             	-- objects within 1’ of ra=195 &amp; dec=2
+						on G.objID = GN.objID	-- connects G and GN
+		where (G.flags &amp; @saturated) = 0  			-- not saturated
+		order by distance					-- sorted nearest first</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>single table, 5 columns</t>
+  </si>
+  <si>
+    <t>single table, 3 columns</t>
+  </si>
+  <si>
+    <t>single table, lots of columns</t>
+  </si>
+  <si>
+    <t>join on parentid column</t>
+  </si>
+  <si>
+    <t>join on index</t>
+  </si>
+  <si>
+    <t>lots of joins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10409]m/d/yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +933,27 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1204,7 +1305,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1345,14 +1446,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1372,6 +1477,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1381,17 +1495,17 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1453,7 +1567,7 @@
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1479,8 +1593,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2000,7 +2114,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3651,10 +3764,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3662,10 +3775,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3673,10 +3786,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3687,10 +3800,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6294438"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -3714,10 +3833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673116" cy="6291866"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -3741,10 +3866,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673116" cy="6291866"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -3781,7 +3912,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3811,7 +3948,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3846,7 +3989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3882,7 +4031,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3923,7 +4078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3959,7 +4120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4059,6 +4226,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4094,6 +4278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4269,11 +4470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:I59"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7697,7 +7898,7 @@
       <c r="Z62" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A1:Z61">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:Z61">
     <sortCondition ref="N1:N61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7706,7 +7907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8772,7 +8973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8803,11 +9004,11 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -8829,11 +9030,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -8855,11 +9056,11 @@
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -8881,15 +9082,15 @@
     </row>
     <row r="8" spans="1:10" ht="28.9" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -8913,10 +9114,10 @@
       <c r="C10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="20" t="s">
         <v>175</v>
       </c>
@@ -8937,10 +9138,10 @@
       <c r="C11" s="15">
         <v>1231051050</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="63">
         <v>5104095160</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="15">
         <v>3282802896</v>
       </c>
@@ -8961,10 +9162,10 @@
       <c r="C12" s="18">
         <v>25610066940</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="61">
         <v>1757902896</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="18">
         <v>989761176</v>
       </c>
@@ -8985,10 +9186,10 @@
       <c r="C13" s="15">
         <v>44595857733</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="63">
         <v>1196022360</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="15">
         <v>1193200336</v>
       </c>
@@ -9009,10 +9210,10 @@
       <c r="C14" s="18">
         <v>1222390340</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="61">
         <v>1118564208</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="18">
         <v>1116848224</v>
       </c>
@@ -9033,10 +9234,10 @@
       <c r="C15" s="15">
         <v>3752184</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="63">
         <v>1038476264</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="15">
         <v>1037876912</v>
       </c>
@@ -9057,10 +9258,10 @@
       <c r="C16" s="18">
         <v>563921584</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="61">
         <v>753480672</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="18">
         <v>566096112</v>
       </c>
@@ -9081,10 +9282,10 @@
       <c r="C17" s="15">
         <v>4411200</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="63">
         <v>192487488</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="15">
         <v>190684712</v>
       </c>
@@ -9105,10 +9306,10 @@
       <c r="C18" s="18">
         <v>364857538</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="61">
         <v>125279528</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="18">
         <v>116754416</v>
       </c>
@@ -9129,10 +9330,10 @@
       <c r="C19" s="15">
         <v>305789541</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="63">
         <v>98327104</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="15">
         <v>97852656</v>
       </c>
@@ -9153,10 +9354,10 @@
       <c r="C20" s="18">
         <v>932886174</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="61">
         <v>74112144</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="18">
         <v>53498864</v>
       </c>
@@ -9177,10 +9378,10 @@
       <c r="C21" s="15">
         <v>469039044</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="63">
         <v>73195928</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="15">
         <v>58629992</v>
       </c>
@@ -9201,10 +9402,10 @@
       <c r="C22" s="18">
         <v>453975934</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="61">
         <v>62873816</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="18">
         <v>54206144</v>
       </c>
@@ -9225,10 +9426,10 @@
       <c r="C23" s="15">
         <v>794350619</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="63">
         <v>52278856</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="15">
         <v>52088688</v>
       </c>
@@ -9249,10 +9450,10 @@
       <c r="C24" s="18">
         <v>563392060</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="61">
         <v>49929432</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="18">
         <v>37559608</v>
       </c>
@@ -9273,10 +9474,10 @@
       <c r="C25" s="15">
         <v>253732084</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="63">
         <v>40685408</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="15">
         <v>40597264</v>
       </c>
@@ -9297,10 +9498,10 @@
       <c r="C26" s="18">
         <v>510679510</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="61">
         <v>34119768</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="18">
         <v>34045664</v>
       </c>
@@ -9321,10 +9522,10 @@
       <c r="C27" s="15">
         <v>208474076</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="63">
         <v>33428176</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="15">
         <v>33355928</v>
       </c>
@@ -9345,10 +9546,10 @@
       <c r="C28" s="18">
         <v>336954036</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="61">
         <v>30699176</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="18">
         <v>30632304</v>
       </c>
@@ -9369,10 +9570,10 @@
       <c r="C29" s="15">
         <v>103577231</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="63">
         <v>26615248</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="15">
         <v>12185680</v>
       </c>
@@ -9393,10 +9594,10 @@
       <c r="C30" s="18">
         <v>495003196</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="61">
         <v>25085608</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="18">
         <v>14193648</v>
       </c>
@@ -9417,10 +9618,10 @@
       <c r="C31" s="15">
         <v>59083189</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="63">
         <v>21657280</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="15">
         <v>17028152</v>
       </c>
@@ -9441,10 +9642,10 @@
       <c r="C32" s="18">
         <v>35527329</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="61">
         <v>10196840</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="18">
         <v>7971088</v>
       </c>
@@ -9465,10 +9666,10 @@
       <c r="C33" s="15">
         <v>8060102</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="63">
         <v>9137240</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="15">
         <v>9093216</v>
       </c>
@@ -9489,10 +9690,10 @@
       <c r="C34" s="18">
         <v>185082010</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="61">
         <v>5346640</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="18">
         <v>5307016</v>
       </c>
@@ -9513,10 +9714,10 @@
       <c r="C35" s="15">
         <v>2440798</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="63">
         <v>4483416</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="15">
         <v>4472096</v>
       </c>
@@ -9537,10 +9738,10 @@
       <c r="C36" s="18">
         <v>32939094</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="61">
         <v>4094792</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="18">
         <v>2125104</v>
       </c>
@@ -9561,10 +9762,10 @@
       <c r="C37" s="15">
         <v>32243514</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="63">
         <v>3939208</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="15">
         <v>3908312</v>
       </c>
@@ -9585,10 +9786,10 @@
       <c r="C38" s="18">
         <v>8060101</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="61">
         <v>3900256</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="18">
         <v>3201416</v>
       </c>
@@ -9609,10 +9810,10 @@
       <c r="C39" s="15">
         <v>4411200</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="63">
         <v>3130808</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="15">
         <v>2716224</v>
       </c>
@@ -9633,10 +9834,10 @@
       <c r="C40" s="18">
         <v>32939114</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="61">
         <v>2703824</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="18">
         <v>2689040</v>
       </c>
@@ -9657,10 +9858,10 @@
       <c r="C41" s="15">
         <v>1843200</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="63">
         <v>2464232</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="15">
         <v>2457656</v>
       </c>
@@ -9681,10 +9882,10 @@
       <c r="C42" s="18">
         <v>60059331</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="61">
         <v>2413264</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="18">
         <v>2212096</v>
       </c>
@@ -9705,10 +9906,10 @@
       <c r="C43" s="15">
         <v>1462532</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="63">
         <v>2347288</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="15">
         <v>2340144</v>
       </c>
@@ -9729,10 +9930,10 @@
       <c r="C44" s="18">
         <v>87723180</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="61">
         <v>2180944</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="18">
         <v>2172832</v>
       </c>
@@ -9753,10 +9954,10 @@
       <c r="C45" s="15">
         <v>938046</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="63">
         <v>1927992</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="15">
         <v>1876152</v>
       </c>
@@ -9777,10 +9978,10 @@
       <c r="C46" s="18">
         <v>2432671</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="61">
         <v>1627400</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="18">
         <v>1621864</v>
       </c>
@@ -9801,10 +10002,10 @@
       <c r="C47" s="15">
         <v>2432671</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="63">
         <v>1627392</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="15">
         <v>1621864</v>
       </c>
@@ -9825,10 +10026,10 @@
       <c r="C48" s="18">
         <v>2432671</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="61">
         <v>1627344</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="18">
         <v>1621872</v>
       </c>
@@ -9849,10 +10050,10 @@
       <c r="C49" s="15">
         <v>2432671</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="63">
         <v>1627272</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="15">
         <v>1621856</v>
       </c>
@@ -9873,10 +10074,10 @@
       <c r="C50" s="18">
         <v>1477411</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="61">
         <v>1484672</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="18">
         <v>1477416</v>
       </c>
@@ -9897,10 +10098,10 @@
       <c r="C51" s="15">
         <v>43286213</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="63">
         <v>1332552</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="15">
         <v>1326896</v>
       </c>
@@ -9921,10 +10122,10 @@
       <c r="C52" s="18">
         <v>1843200</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="61">
         <v>1232560</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="18">
         <v>1228848</v>
       </c>
@@ -9945,10 +10146,10 @@
       <c r="C53" s="15">
         <v>1477411</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="63">
         <v>1187712</v>
       </c>
-      <c r="E53" s="51"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="15">
         <v>1181936</v>
       </c>
@@ -9969,10 +10170,10 @@
       <c r="C54" s="18">
         <v>8063538</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="61">
         <v>993112</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="18">
         <v>977160</v>
       </c>
@@ -9993,10 +10194,10 @@
       <c r="C55" s="15">
         <v>641409</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="63">
         <v>858808</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="15">
         <v>855320</v>
       </c>
@@ -10017,10 +10218,10 @@
       <c r="C56" s="18">
         <v>1697361</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="61">
         <v>568640</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="62"/>
       <c r="F56" s="18">
         <v>565792</v>
       </c>
@@ -10041,10 +10242,10 @@
       <c r="C57" s="15">
         <v>2432671</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="63">
         <v>455168</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="15">
         <v>452680</v>
       </c>
@@ -10065,10 +10266,10 @@
       <c r="C58" s="18">
         <v>2432671</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="61">
         <v>455168</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="18">
         <v>452688</v>
       </c>
@@ -10089,10 +10290,10 @@
       <c r="C59" s="15">
         <v>8060102</v>
       </c>
-      <c r="D59" s="50">
+      <c r="D59" s="63">
         <v>427656</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="62"/>
       <c r="F59" s="15">
         <v>424344</v>
       </c>
@@ -10113,10 +10314,10 @@
       <c r="C60" s="18">
         <v>2432671</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="61">
         <v>399808</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="18">
         <v>397272</v>
       </c>
@@ -10137,10 +10338,10 @@
       <c r="C61" s="15">
         <v>2432671</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="63">
         <v>399488</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="15">
         <v>396944</v>
       </c>
@@ -10161,10 +10362,10 @@
       <c r="C62" s="18">
         <v>243500</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="61">
         <v>391240</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="62"/>
       <c r="F62" s="18">
         <v>389656</v>
       </c>
@@ -10185,10 +10386,10 @@
       <c r="C63" s="15">
         <v>618416</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="63">
         <v>335840</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="62"/>
       <c r="F63" s="15">
         <v>247528</v>
       </c>
@@ -10209,10 +10410,10 @@
       <c r="C64" s="18">
         <v>1477411</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="61">
         <v>270016</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="62"/>
       <c r="F64" s="18">
         <v>268624</v>
       </c>
@@ -10233,10 +10434,10 @@
       <c r="C65" s="15">
         <v>1056872</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="63">
         <v>222656</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="62"/>
       <c r="F65" s="15">
         <v>130080</v>
       </c>
@@ -10257,10 +10458,10 @@
       <c r="C66" s="18">
         <v>164562</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="61">
         <v>155656</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="62"/>
       <c r="F66" s="18">
         <v>131760</v>
       </c>
@@ -10281,10 +10482,10 @@
       <c r="C67" s="15">
         <v>893212</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="63">
         <v>154176</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="15">
         <v>129984</v>
       </c>
@@ -10305,10 +10506,10 @@
       <c r="C68" s="18">
         <v>1477411</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="61">
         <v>144256</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="18">
         <v>143512</v>
       </c>
@@ -10329,10 +10530,10 @@
       <c r="C69" s="15">
         <v>197040</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="63">
         <v>133872</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="15">
         <v>131432</v>
       </c>
@@ -10353,10 +10554,10 @@
       <c r="C70" s="18">
         <v>1082436</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="61">
         <v>131392</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="62"/>
       <c r="F70" s="18">
         <v>39728</v>
       </c>
@@ -10377,10 +10578,10 @@
       <c r="C71" s="15">
         <v>667944</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="63">
         <v>122784</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="62"/>
       <c r="F71" s="15">
         <v>106928</v>
       </c>
@@ -10401,10 +10602,10 @@
       <c r="C72" s="18">
         <v>667944</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="61">
         <v>99424</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="62"/>
       <c r="F72" s="18">
         <v>83544</v>
       </c>
@@ -10425,10 +10626,10 @@
       <c r="C73" s="15">
         <v>164562</v>
       </c>
-      <c r="D73" s="50">
+      <c r="D73" s="63">
         <v>93008</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="62"/>
       <c r="F73" s="15">
         <v>60184</v>
       </c>
@@ -10449,10 +10650,10 @@
       <c r="C74" s="18">
         <v>42462</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="61">
         <v>70088</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="62"/>
       <c r="F74" s="18">
         <v>67992</v>
       </c>
@@ -10473,10 +10674,10 @@
       <c r="C75" s="15">
         <v>656274</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="63">
         <v>63824</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="15">
         <v>60488</v>
       </c>
@@ -10497,10 +10698,10 @@
       <c r="C76" s="18">
         <v>606875</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="61">
         <v>59016</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="62"/>
       <c r="F76" s="18">
         <v>55920</v>
       </c>
@@ -10521,10 +10722,10 @@
       <c r="C77" s="15">
         <v>901366</v>
       </c>
-      <c r="D77" s="50">
+      <c r="D77" s="63">
         <v>49040</v>
       </c>
-      <c r="E77" s="51"/>
+      <c r="E77" s="62"/>
       <c r="F77" s="15">
         <v>45760</v>
       </c>
@@ -10545,10 +10746,10 @@
       <c r="C78" s="18">
         <v>225268</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="61">
         <v>34944</v>
       </c>
-      <c r="E78" s="51"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="18">
         <v>26192</v>
       </c>
@@ -10569,10 +10770,10 @@
       <c r="C79" s="15">
         <v>19765</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="63">
         <v>32904</v>
       </c>
-      <c r="E79" s="51"/>
+      <c r="E79" s="62"/>
       <c r="F79" s="15">
         <v>31672</v>
       </c>
@@ -10593,10 +10794,10 @@
       <c r="C80" s="18">
         <v>19761</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="61">
         <v>32904</v>
       </c>
-      <c r="E80" s="51"/>
+      <c r="E80" s="62"/>
       <c r="F80" s="18">
         <v>31680</v>
       </c>
@@ -10617,10 +10818,10 @@
       <c r="C81" s="15">
         <v>17787</v>
       </c>
-      <c r="D81" s="50">
+      <c r="D81" s="63">
         <v>29824</v>
       </c>
-      <c r="E81" s="51"/>
+      <c r="E81" s="62"/>
       <c r="F81" s="15">
         <v>28520</v>
       </c>
@@ -10641,10 +10842,10 @@
       <c r="C82" s="18">
         <v>541008</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="61">
         <v>29328</v>
       </c>
-      <c r="E82" s="51"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="18">
         <v>26992</v>
       </c>
@@ -10665,10 +10866,10 @@
       <c r="C83" s="15">
         <v>42561</v>
       </c>
-      <c r="D83" s="50">
+      <c r="D83" s="63">
         <v>29240</v>
       </c>
-      <c r="E83" s="51"/>
+      <c r="E83" s="62"/>
       <c r="F83" s="15">
         <v>26280</v>
       </c>
@@ -10689,10 +10890,10 @@
       <c r="C84" s="18">
         <v>102683</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="61">
         <v>23096</v>
       </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="62"/>
       <c r="F84" s="18">
         <v>20424</v>
       </c>
@@ -10713,10 +10914,10 @@
       <c r="C85" s="15">
         <v>91303</v>
       </c>
-      <c r="D85" s="50">
+      <c r="D85" s="63">
         <v>22312</v>
       </c>
-      <c r="E85" s="51"/>
+      <c r="E85" s="62"/>
       <c r="F85" s="15">
         <v>17472</v>
       </c>
@@ -10737,10 +10938,10 @@
       <c r="C86" s="18">
         <v>91303</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="61">
         <v>15856</v>
       </c>
-      <c r="E86" s="51"/>
+      <c r="E86" s="62"/>
       <c r="F86" s="18">
         <v>11832</v>
       </c>
@@ -10761,10 +10962,10 @@
       <c r="C87" s="15">
         <v>26825</v>
       </c>
-      <c r="D87" s="50">
+      <c r="D87" s="63">
         <v>11144</v>
       </c>
-      <c r="E87" s="51"/>
+      <c r="E87" s="62"/>
       <c r="F87" s="15">
         <v>8504</v>
       </c>
@@ -10785,10 +10986,10 @@
       <c r="C88" s="18">
         <v>95115</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="61">
         <v>10056</v>
       </c>
-      <c r="E88" s="51"/>
+      <c r="E88" s="62"/>
       <c r="F88" s="18">
         <v>7896</v>
       </c>
@@ -10809,10 +11010,10 @@
       <c r="C89" s="15">
         <v>5448</v>
       </c>
-      <c r="D89" s="50">
+      <c r="D89" s="63">
         <v>6976</v>
       </c>
-      <c r="E89" s="51"/>
+      <c r="E89" s="62"/>
       <c r="F89" s="15">
         <v>4288</v>
       </c>
@@ -10833,10 +11034,10 @@
       <c r="C90" s="18">
         <v>11040</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="61">
         <v>3816</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="18">
         <v>3688</v>
       </c>
@@ -10857,10 +11058,10 @@
       <c r="C91" s="15">
         <v>7280</v>
       </c>
-      <c r="D91" s="50">
+      <c r="D91" s="63">
         <v>2496</v>
       </c>
-      <c r="E91" s="51"/>
+      <c r="E91" s="62"/>
       <c r="F91" s="15">
         <v>1008</v>
       </c>
@@ -10881,10 +11082,10 @@
       <c r="C92" s="18">
         <v>2391</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="61">
         <v>1992</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="62"/>
       <c r="F92" s="18">
         <v>1912</v>
       </c>
@@ -10905,10 +11106,10 @@
       <c r="C93" s="15">
         <v>2350</v>
       </c>
-      <c r="D93" s="50">
+      <c r="D93" s="63">
         <v>520</v>
       </c>
-      <c r="E93" s="51"/>
+      <c r="E93" s="62"/>
       <c r="F93" s="15">
         <v>424</v>
       </c>
@@ -10929,10 +11130,10 @@
       <c r="C94" s="18">
         <v>4421</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="61">
         <v>448</v>
       </c>
-      <c r="E94" s="51"/>
+      <c r="E94" s="62"/>
       <c r="F94" s="18">
         <v>264</v>
       </c>
@@ -10953,10 +11154,10 @@
       <c r="C95" s="15">
         <v>1869</v>
       </c>
-      <c r="D95" s="50">
+      <c r="D95" s="63">
         <v>416</v>
       </c>
-      <c r="E95" s="51"/>
+      <c r="E95" s="62"/>
       <c r="F95" s="15">
         <v>136</v>
       </c>
@@ -10977,10 +11178,10 @@
       <c r="C96" s="18">
         <v>593</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="61">
         <v>392</v>
       </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="62"/>
       <c r="F96" s="18">
         <v>296</v>
       </c>
@@ -11001,10 +11202,10 @@
       <c r="C97" s="15">
         <v>1212</v>
       </c>
-      <c r="D97" s="50">
+      <c r="D97" s="63">
         <v>248</v>
       </c>
-      <c r="E97" s="51"/>
+      <c r="E97" s="62"/>
       <c r="F97" s="15">
         <v>152</v>
       </c>
@@ -11025,10 +11226,10 @@
       <c r="C98" s="18">
         <v>681</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="61">
         <v>224</v>
       </c>
-      <c r="E98" s="51"/>
+      <c r="E98" s="62"/>
       <c r="F98" s="18">
         <v>72</v>
       </c>
@@ -11049,10 +11250,10 @@
       <c r="C99" s="15">
         <v>765</v>
       </c>
-      <c r="D99" s="50">
+      <c r="D99" s="63">
         <v>216</v>
       </c>
-      <c r="E99" s="51"/>
+      <c r="E99" s="62"/>
       <c r="F99" s="15">
         <v>168</v>
       </c>
@@ -11073,10 +11274,10 @@
       <c r="C100" s="18">
         <v>846</v>
       </c>
-      <c r="D100" s="52">
+      <c r="D100" s="61">
         <v>168</v>
       </c>
-      <c r="E100" s="51"/>
+      <c r="E100" s="62"/>
       <c r="F100" s="18">
         <v>120</v>
       </c>
@@ -11097,10 +11298,10 @@
       <c r="C101" s="15">
         <v>6</v>
       </c>
-      <c r="D101" s="50">
+      <c r="D101" s="63">
         <v>136</v>
       </c>
-      <c r="E101" s="51"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="15">
         <v>16</v>
       </c>
@@ -11121,10 +11322,10 @@
       <c r="C102" s="18">
         <v>225</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="61">
         <v>104</v>
       </c>
-      <c r="E102" s="51"/>
+      <c r="E102" s="62"/>
       <c r="F102" s="18">
         <v>16</v>
       </c>
@@ -11145,10 +11346,10 @@
       <c r="C103" s="15">
         <v>356</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="63">
         <v>56</v>
       </c>
-      <c r="E103" s="51"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="15">
         <v>40</v>
       </c>
@@ -11169,10 +11370,10 @@
       <c r="C104" s="18">
         <v>741</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="61">
         <v>48</v>
       </c>
-      <c r="E104" s="51"/>
+      <c r="E104" s="62"/>
       <c r="F104" s="18">
         <v>32</v>
       </c>
@@ -11193,10 +11394,10 @@
       <c r="C105" s="15">
         <v>593</v>
       </c>
-      <c r="D105" s="50">
+      <c r="D105" s="63">
         <v>48</v>
       </c>
-      <c r="E105" s="51"/>
+      <c r="E105" s="62"/>
       <c r="F105" s="15">
         <v>32</v>
       </c>
@@ -11217,10 +11418,10 @@
       <c r="C106" s="18">
         <v>493</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="61">
         <v>48</v>
       </c>
-      <c r="E106" s="51"/>
+      <c r="E106" s="62"/>
       <c r="F106" s="18">
         <v>32</v>
       </c>
@@ -11241,10 +11442,10 @@
       <c r="C107" s="15">
         <v>403</v>
       </c>
-      <c r="D107" s="50">
+      <c r="D107" s="63">
         <v>40</v>
       </c>
-      <c r="E107" s="51"/>
+      <c r="E107" s="62"/>
       <c r="F107" s="15">
         <v>24</v>
       </c>
@@ -11265,10 +11466,10 @@
       <c r="C108" s="18">
         <v>493</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="61">
         <v>40</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="62"/>
       <c r="F108" s="18">
         <v>24</v>
       </c>
@@ -11289,10 +11490,10 @@
       <c r="C109" s="15">
         <v>436</v>
       </c>
-      <c r="D109" s="50">
+      <c r="D109" s="63">
         <v>40</v>
       </c>
-      <c r="E109" s="51"/>
+      <c r="E109" s="62"/>
       <c r="F109" s="15">
         <v>24</v>
       </c>
@@ -11313,10 +11514,10 @@
       <c r="C110" s="18">
         <v>250</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="61">
         <v>40</v>
       </c>
-      <c r="E110" s="51"/>
+      <c r="E110" s="62"/>
       <c r="F110" s="18">
         <v>24</v>
       </c>
@@ -11337,10 +11538,10 @@
       <c r="C111" s="15">
         <v>231</v>
       </c>
-      <c r="D111" s="50">
+      <c r="D111" s="63">
         <v>32</v>
       </c>
-      <c r="E111" s="51"/>
+      <c r="E111" s="62"/>
       <c r="F111" s="15">
         <v>16</v>
       </c>
@@ -11361,10 +11562,10 @@
       <c r="C112" s="18">
         <v>12</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="61">
         <v>16</v>
       </c>
-      <c r="E112" s="51"/>
+      <c r="E112" s="62"/>
       <c r="F112" s="18">
         <v>8</v>
       </c>
@@ -11385,10 +11586,10 @@
       <c r="C113" s="15">
         <v>11</v>
       </c>
-      <c r="D113" s="50">
+      <c r="D113" s="63">
         <v>16</v>
       </c>
-      <c r="E113" s="51"/>
+      <c r="E113" s="62"/>
       <c r="F113" s="15">
         <v>8</v>
       </c>
@@ -11409,10 +11610,10 @@
       <c r="C114" s="18">
         <v>104</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="61">
         <v>16</v>
       </c>
-      <c r="E114" s="51"/>
+      <c r="E114" s="62"/>
       <c r="F114" s="18">
         <v>8</v>
       </c>
@@ -11433,10 +11634,10 @@
       <c r="C115" s="15">
         <v>6</v>
       </c>
-      <c r="D115" s="50">
+      <c r="D115" s="63">
         <v>16</v>
       </c>
-      <c r="E115" s="51"/>
+      <c r="E115" s="62"/>
       <c r="F115" s="15">
         <v>8</v>
       </c>
@@ -11457,10 +11658,10 @@
       <c r="C116" s="18">
         <v>35</v>
       </c>
-      <c r="D116" s="52">
+      <c r="D116" s="61">
         <v>16</v>
       </c>
-      <c r="E116" s="51"/>
+      <c r="E116" s="62"/>
       <c r="F116" s="18">
         <v>8</v>
       </c>
@@ -11481,10 +11682,10 @@
       <c r="C117" s="15">
         <v>4</v>
       </c>
-      <c r="D117" s="50">
+      <c r="D117" s="63">
         <v>16</v>
       </c>
-      <c r="E117" s="51"/>
+      <c r="E117" s="62"/>
       <c r="F117" s="15">
         <v>8</v>
       </c>
@@ -11505,10 +11706,10 @@
       <c r="C118" s="18">
         <v>11</v>
       </c>
-      <c r="D118" s="52">
+      <c r="D118" s="61">
         <v>16</v>
       </c>
-      <c r="E118" s="51"/>
+      <c r="E118" s="62"/>
       <c r="F118" s="18">
         <v>8</v>
       </c>
@@ -11529,10 +11730,10 @@
       <c r="C119" s="15">
         <v>9</v>
       </c>
-      <c r="D119" s="50">
+      <c r="D119" s="63">
         <v>16</v>
       </c>
-      <c r="E119" s="51"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="15">
         <v>8</v>
       </c>
@@ -11553,10 +11754,10 @@
       <c r="C120" s="18">
         <v>15</v>
       </c>
-      <c r="D120" s="52">
+      <c r="D120" s="61">
         <v>16</v>
       </c>
-      <c r="E120" s="51"/>
+      <c r="E120" s="62"/>
       <c r="F120" s="18">
         <v>8</v>
       </c>
@@ -11577,10 +11778,10 @@
       <c r="C121" s="15">
         <v>48</v>
       </c>
-      <c r="D121" s="50">
+      <c r="D121" s="63">
         <v>16</v>
       </c>
-      <c r="E121" s="51"/>
+      <c r="E121" s="62"/>
       <c r="F121" s="15">
         <v>8</v>
       </c>
@@ -11601,10 +11802,10 @@
       <c r="C122" s="18">
         <v>48</v>
       </c>
-      <c r="D122" s="52">
+      <c r="D122" s="61">
         <v>16</v>
       </c>
-      <c r="E122" s="51"/>
+      <c r="E122" s="62"/>
       <c r="F122" s="18">
         <v>8</v>
       </c>
@@ -11625,10 +11826,10 @@
       <c r="C123" s="15">
         <v>138</v>
       </c>
-      <c r="D123" s="50">
+      <c r="D123" s="63">
         <v>16</v>
       </c>
-      <c r="E123" s="51"/>
+      <c r="E123" s="62"/>
       <c r="F123" s="15">
         <v>8</v>
       </c>
@@ -11649,10 +11850,10 @@
       <c r="C124" s="18">
         <v>5</v>
       </c>
-      <c r="D124" s="52">
+      <c r="D124" s="61">
         <v>16</v>
       </c>
-      <c r="E124" s="51"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="18">
         <v>8</v>
       </c>
@@ -11673,10 +11874,10 @@
       <c r="C125" s="15">
         <v>0</v>
       </c>
-      <c r="D125" s="50">
-        <v>0</v>
-      </c>
-      <c r="E125" s="51"/>
+      <c r="D125" s="63">
+        <v>0</v>
+      </c>
+      <c r="E125" s="62"/>
       <c r="F125" s="15">
         <v>0</v>
       </c>
@@ -11697,10 +11898,10 @@
       <c r="C126" s="18">
         <v>0</v>
       </c>
-      <c r="D126" s="52">
-        <v>0</v>
-      </c>
-      <c r="E126" s="51"/>
+      <c r="D126" s="61">
+        <v>0</v>
+      </c>
+      <c r="E126" s="62"/>
       <c r="F126" s="18">
         <v>0</v>
       </c>
@@ -11721,10 +11922,10 @@
       <c r="C127" s="15">
         <v>0</v>
       </c>
-      <c r="D127" s="50">
-        <v>0</v>
-      </c>
-      <c r="E127" s="51"/>
+      <c r="D127" s="63">
+        <v>0</v>
+      </c>
+      <c r="E127" s="62"/>
       <c r="F127" s="15">
         <v>0</v>
       </c>
@@ -11745,10 +11946,10 @@
       <c r="C128" s="18">
         <v>0</v>
       </c>
-      <c r="D128" s="52">
-        <v>0</v>
-      </c>
-      <c r="E128" s="51"/>
+      <c r="D128" s="61">
+        <v>0</v>
+      </c>
+      <c r="E128" s="62"/>
       <c r="F128" s="18">
         <v>0</v>
       </c>
@@ -11769,10 +11970,10 @@
       <c r="C129" s="15">
         <v>0</v>
       </c>
-      <c r="D129" s="50">
-        <v>0</v>
-      </c>
-      <c r="E129" s="51"/>
+      <c r="D129" s="63">
+        <v>0</v>
+      </c>
+      <c r="E129" s="62"/>
       <c r="F129" s="15">
         <v>0</v>
       </c>
@@ -11793,10 +11994,10 @@
       <c r="C130" s="18">
         <v>0</v>
       </c>
-      <c r="D130" s="52">
-        <v>0</v>
-      </c>
-      <c r="E130" s="51"/>
+      <c r="D130" s="61">
+        <v>0</v>
+      </c>
+      <c r="E130" s="62"/>
       <c r="F130" s="18">
         <v>0</v>
       </c>
@@ -11817,10 +12018,10 @@
       <c r="C131" s="15">
         <v>0</v>
       </c>
-      <c r="D131" s="50">
-        <v>0</v>
-      </c>
-      <c r="E131" s="51"/>
+      <c r="D131" s="63">
+        <v>0</v>
+      </c>
+      <c r="E131" s="62"/>
       <c r="F131" s="15">
         <v>0</v>
       </c>
@@ -11841,10 +12042,10 @@
       <c r="C132" s="12">
         <v>0</v>
       </c>
-      <c r="D132" s="59">
-        <v>0</v>
-      </c>
-      <c r="E132" s="60"/>
+      <c r="D132" s="64">
+        <v>0</v>
+      </c>
+      <c r="E132" s="65"/>
       <c r="F132" s="12">
         <v>0</v>
       </c>
@@ -11941,7 +12142,6 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
@@ -11951,8 +12151,6 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
@@ -11961,9 +12159,7 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D21:E21"/>
@@ -11971,21 +12167,26 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11994,7 +12195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -12027,11 +12228,11 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -12053,11 +12254,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -12079,11 +12280,11 @@
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -12105,15 +12306,15 @@
     </row>
     <row r="8" spans="1:10" ht="28.9" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -12137,10 +12338,10 @@
       <c r="C10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="20" t="s">
         <v>175</v>
       </c>
@@ -12161,10 +12362,10 @@
       <c r="C11" s="15">
         <v>1231051050</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="63">
         <v>4769369920</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="15">
         <v>3210857920</v>
       </c>
@@ -12185,10 +12386,10 @@
       <c r="C12" s="18">
         <v>25610066940</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="61">
         <v>1233594480</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="18">
         <v>572702648</v>
       </c>
@@ -12209,10 +12410,10 @@
       <c r="C13" s="15">
         <v>3752184</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="63">
         <v>1037730568</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="15">
         <v>1037438688</v>
       </c>
@@ -12233,10 +12434,10 @@
       <c r="C14" s="18">
         <v>1222390340</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="61">
         <v>858883408</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="18">
         <v>857580560</v>
       </c>
@@ -12257,10 +12458,10 @@
       <c r="C15" s="15">
         <v>44595857733</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="63">
         <v>782908144</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="15">
         <v>780798160</v>
       </c>
@@ -12281,10 +12482,10 @@
       <c r="C16" s="18">
         <v>563921584</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="61">
         <v>585427768</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="18">
         <v>460866248</v>
       </c>
@@ -12305,10 +12506,10 @@
       <c r="C17" s="15">
         <v>4411200</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="63">
         <v>189528608</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="15">
         <v>188016592</v>
       </c>
@@ -12329,10 +12530,10 @@
       <c r="C18" s="18">
         <v>364857538</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="61">
         <v>109145824</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="18">
         <v>104935560</v>
       </c>
@@ -12353,10 +12554,10 @@
       <c r="C19" s="15">
         <v>305789541</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="63">
         <v>90961696</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="15">
         <v>90745744</v>
       </c>
@@ -12377,10 +12578,10 @@
       <c r="C20" s="18">
         <v>469039044</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="61">
         <v>60410968</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="18">
         <v>46481600</v>
       </c>
@@ -12401,10 +12602,10 @@
       <c r="C21" s="15">
         <v>794350619</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="63">
         <v>43233648</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="15">
         <v>43070880</v>
       </c>
@@ -12425,10 +12626,10 @@
       <c r="C22" s="18">
         <v>453975934</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="61">
         <v>42580752</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="18">
         <v>38193256</v>
       </c>
@@ -12449,10 +12650,10 @@
       <c r="C23" s="15">
         <v>208474076</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="63">
         <v>33428168</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="15">
         <v>33355936</v>
       </c>
@@ -12473,10 +12674,10 @@
       <c r="C24" s="18">
         <v>932886174</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="61">
         <v>23878176</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="18">
         <v>12487392</v>
       </c>
@@ -12497,10 +12698,10 @@
       <c r="C25" s="15">
         <v>563392060</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="63">
         <v>23699160</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="15">
         <v>17548600</v>
       </c>
@@ -12521,10 +12722,10 @@
       <c r="C26" s="18">
         <v>253732084</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="61">
         <v>20711464</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="18">
         <v>20661144</v>
       </c>
@@ -12545,10 +12746,10 @@
       <c r="C27" s="15">
         <v>336954036</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="63">
         <v>18485192</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="15">
         <v>18439992</v>
       </c>
@@ -12569,10 +12770,10 @@
       <c r="C28" s="18">
         <v>103577231</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="61">
         <v>16289760</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="18">
         <v>7656016</v>
       </c>
@@ -12593,10 +12794,10 @@
       <c r="C29" s="15">
         <v>495003196</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="63">
         <v>13855048</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="15">
         <v>7809112</v>
       </c>
@@ -12617,10 +12818,10 @@
       <c r="C30" s="18">
         <v>59083189</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="61">
         <v>11323760</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="18">
         <v>7527224</v>
       </c>
@@ -12641,10 +12842,10 @@
       <c r="C31" s="15">
         <v>35527329</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="63">
         <v>8679032</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="15">
         <v>6640504</v>
       </c>
@@ -12665,10 +12866,10 @@
       <c r="C32" s="18">
         <v>510679510</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="61">
         <v>7179768</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="18">
         <v>7161136</v>
       </c>
@@ -12689,10 +12890,10 @@
       <c r="C33" s="15">
         <v>2440798</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="63">
         <v>3481432</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="15">
         <v>3471296</v>
       </c>
@@ -12713,10 +12914,10 @@
       <c r="C34" s="18">
         <v>8060101</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="61">
         <v>3167880</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="18">
         <v>2707656</v>
       </c>
@@ -12737,10 +12938,10 @@
       <c r="C35" s="15">
         <v>60059331</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="63">
         <v>2413264</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="15">
         <v>2212096</v>
       </c>
@@ -12761,10 +12962,10 @@
       <c r="C36" s="18">
         <v>1843200</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="61">
         <v>2400912</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="18">
         <v>2393440</v>
       </c>
@@ -12785,10 +12986,10 @@
       <c r="C37" s="15">
         <v>185082010</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="63">
         <v>2109592</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="15">
         <v>2100584</v>
       </c>
@@ -12809,10 +13010,10 @@
       <c r="C38" s="18">
         <v>4411200</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="61">
         <v>2097504</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="18">
         <v>1845368</v>
       </c>
@@ -12833,10 +13034,10 @@
       <c r="C39" s="15">
         <v>1462532</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="63">
         <v>1854552</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="15">
         <v>1848264</v>
       </c>
@@ -12857,10 +13058,10 @@
       <c r="C40" s="18">
         <v>32243514</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="61">
         <v>1620760</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="18">
         <v>1615152</v>
       </c>
@@ -12881,10 +13082,10 @@
       <c r="C41" s="15">
         <v>938046</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="63">
         <v>1543544</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="15">
         <v>1504896</v>
       </c>
@@ -12905,10 +13106,10 @@
       <c r="C42" s="18">
         <v>2432671</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="61">
         <v>1497424</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="18">
         <v>1491856</v>
       </c>
@@ -12929,10 +13130,10 @@
       <c r="C43" s="15">
         <v>2432671</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="63">
         <v>1493072</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="15">
         <v>1487576</v>
       </c>
@@ -12953,10 +13154,10 @@
       <c r="C44" s="18">
         <v>32939094</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="61">
         <v>1427032</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="18">
         <v>709152</v>
       </c>
@@ -12977,10 +13178,10 @@
       <c r="C45" s="15">
         <v>1477411</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="63">
         <v>1404232</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="15">
         <v>1398608</v>
       </c>
@@ -13001,10 +13202,10 @@
       <c r="C46" s="18">
         <v>2432671</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="61">
         <v>1393416</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="18">
         <v>1387960</v>
       </c>
@@ -13025,10 +13226,10 @@
       <c r="C47" s="15">
         <v>2432671</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="63">
         <v>1346648</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="15">
         <v>1341472</v>
       </c>
@@ -13049,10 +13250,10 @@
       <c r="C48" s="18">
         <v>1477411</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="61">
         <v>1185880</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="18">
         <v>1182016</v>
       </c>
@@ -13073,10 +13274,10 @@
       <c r="C49" s="15">
         <v>87723180</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="63">
         <v>1058384</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="15">
         <v>1053160</v>
       </c>
@@ -13097,10 +13298,10 @@
       <c r="C50" s="18">
         <v>43286213</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="61">
         <v>936392</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="18">
         <v>932312</v>
       </c>
@@ -13121,10 +13322,10 @@
       <c r="C51" s="15">
         <v>641409</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="63">
         <v>855304</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="15">
         <v>855216</v>
       </c>
@@ -13145,10 +13346,10 @@
       <c r="C52" s="18">
         <v>32939114</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="61">
         <v>830424</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="18">
         <v>824728</v>
       </c>
@@ -13169,10 +13370,10 @@
       <c r="C53" s="15">
         <v>1697361</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="63">
         <v>568328</v>
       </c>
-      <c r="E53" s="51"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="15">
         <v>565888</v>
       </c>
@@ -13193,10 +13394,10 @@
       <c r="C54" s="18">
         <v>1843200</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="61">
         <v>544200</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="18">
         <v>541416</v>
       </c>
@@ -13217,10 +13418,10 @@
       <c r="C55" s="15">
         <v>2432671</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="63">
         <v>389576</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="15">
         <v>387048</v>
       </c>
@@ -13241,10 +13442,10 @@
       <c r="C56" s="18">
         <v>2432671</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="61">
         <v>389520</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="62"/>
       <c r="F56" s="18">
         <v>386904</v>
       </c>
@@ -13265,10 +13466,10 @@
       <c r="C57" s="15">
         <v>8060102</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="63">
         <v>283080</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="15">
         <v>280528</v>
       </c>
@@ -13289,10 +13490,10 @@
       <c r="C58" s="18">
         <v>2432671</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="61">
         <v>268808</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="18">
         <v>266384</v>
       </c>
@@ -13313,10 +13514,10 @@
       <c r="C59" s="15">
         <v>8063538</v>
       </c>
-      <c r="D59" s="50">
+      <c r="D59" s="63">
         <v>255376</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="62"/>
       <c r="F59" s="15">
         <v>249760</v>
       </c>
@@ -13337,10 +13538,10 @@
       <c r="C60" s="18">
         <v>2432671</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="61">
         <v>239048</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="18">
         <v>236560</v>
       </c>
@@ -13361,10 +13562,10 @@
       <c r="C61" s="15">
         <v>1477411</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="63">
         <v>204232</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="15">
         <v>201864</v>
       </c>
@@ -13385,10 +13586,10 @@
       <c r="C62" s="18">
         <v>243500</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="61">
         <v>163328</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="62"/>
       <c r="F62" s="18">
         <v>160704</v>
       </c>
@@ -13409,10 +13610,10 @@
       <c r="C63" s="15">
         <v>618416</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="63">
         <v>146024</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="62"/>
       <c r="F63" s="15">
         <v>112840</v>
       </c>
@@ -13433,10 +13634,10 @@
       <c r="C64" s="18">
         <v>1056872</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="61">
         <v>142544</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="62"/>
       <c r="F64" s="18">
         <v>82008</v>
       </c>
@@ -13457,10 +13658,10 @@
       <c r="C65" s="15">
         <v>164562</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="63">
         <v>108608</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="62"/>
       <c r="F65" s="15">
         <v>96712</v>
       </c>
@@ -13481,10 +13682,10 @@
       <c r="C66" s="18">
         <v>893212</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="61">
         <v>88912</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="62"/>
       <c r="F66" s="18">
         <v>71640</v>
       </c>
@@ -13505,10 +13706,10 @@
       <c r="C67" s="15">
         <v>1477411</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="63">
         <v>86088</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="15">
         <v>83576</v>
       </c>
@@ -13529,10 +13730,10 @@
       <c r="C68" s="18">
         <v>197040</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="61">
         <v>82888</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="18">
         <v>80608</v>
       </c>
@@ -13553,10 +13754,10 @@
       <c r="C69" s="15">
         <v>667944</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="63">
         <v>75496</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="15">
         <v>59536</v>
       </c>
@@ -13577,10 +13778,10 @@
       <c r="C70" s="18">
         <v>1082436</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="61">
         <v>72576</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="62"/>
       <c r="F70" s="18">
         <v>18856</v>
       </c>
@@ -13601,10 +13802,10 @@
       <c r="C71" s="15">
         <v>667944</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="63">
         <v>68960</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="62"/>
       <c r="F71" s="15">
         <v>52640</v>
       </c>
@@ -13625,10 +13826,10 @@
       <c r="C72" s="18">
         <v>164562</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="61">
         <v>54936</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="62"/>
       <c r="F72" s="18">
         <v>35064</v>
       </c>
@@ -13649,10 +13850,10 @@
       <c r="C73" s="15">
         <v>901366</v>
       </c>
-      <c r="D73" s="50">
+      <c r="D73" s="63">
         <v>48144</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="62"/>
       <c r="F73" s="15">
         <v>45728</v>
       </c>
@@ -13673,10 +13874,10 @@
       <c r="C74" s="18">
         <v>225268</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="61">
         <v>34960</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="62"/>
       <c r="F74" s="18">
         <v>26216</v>
       </c>
@@ -13697,10 +13898,10 @@
       <c r="C75" s="15">
         <v>42462</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="63">
         <v>31304</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="15">
         <v>29024</v>
       </c>
@@ -13721,10 +13922,10 @@
       <c r="C76" s="18">
         <v>42561</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="61">
         <v>28224</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="62"/>
       <c r="F76" s="18">
         <v>26272</v>
       </c>
@@ -13745,10 +13946,10 @@
       <c r="C77" s="15">
         <v>91303</v>
       </c>
-      <c r="D77" s="50">
+      <c r="D77" s="63">
         <v>22664</v>
       </c>
-      <c r="E77" s="51"/>
+      <c r="E77" s="62"/>
       <c r="F77" s="15">
         <v>17496</v>
       </c>
@@ -13769,10 +13970,10 @@
       <c r="C78" s="18">
         <v>102683</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="61">
         <v>22264</v>
       </c>
-      <c r="E78" s="51"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="18">
         <v>20352</v>
       </c>
@@ -13793,10 +13994,10 @@
       <c r="C79" s="15">
         <v>656274</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="63">
         <v>21320</v>
       </c>
-      <c r="E79" s="51"/>
+      <c r="E79" s="62"/>
       <c r="F79" s="15">
         <v>19024</v>
       </c>
@@ -13817,10 +14018,10 @@
       <c r="C80" s="18">
         <v>606875</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="61">
         <v>19408</v>
       </c>
-      <c r="E80" s="51"/>
+      <c r="E80" s="62"/>
       <c r="F80" s="18">
         <v>16928</v>
       </c>
@@ -13841,10 +14042,10 @@
       <c r="C81" s="15">
         <v>91303</v>
       </c>
-      <c r="D81" s="50">
+      <c r="D81" s="63">
         <v>17224</v>
       </c>
-      <c r="E81" s="51"/>
+      <c r="E81" s="62"/>
       <c r="F81" s="15">
         <v>11888</v>
       </c>
@@ -13865,10 +14066,10 @@
       <c r="C82" s="18">
         <v>17787</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="61">
         <v>12856</v>
       </c>
-      <c r="E82" s="51"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="18">
         <v>11080</v>
       </c>
@@ -13889,10 +14090,10 @@
       <c r="C83" s="15">
         <v>541008</v>
       </c>
-      <c r="D83" s="50">
+      <c r="D83" s="63">
         <v>12384</v>
       </c>
-      <c r="E83" s="51"/>
+      <c r="E83" s="62"/>
       <c r="F83" s="15">
         <v>10832</v>
       </c>
@@ -13913,10 +14114,10 @@
       <c r="C84" s="18">
         <v>19761</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="61">
         <v>11632</v>
       </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="62"/>
       <c r="F84" s="18">
         <v>9792</v>
       </c>
@@ -13937,10 +14138,10 @@
       <c r="C85" s="15">
         <v>19765</v>
       </c>
-      <c r="D85" s="50">
+      <c r="D85" s="63">
         <v>10856</v>
       </c>
-      <c r="E85" s="51"/>
+      <c r="E85" s="62"/>
       <c r="F85" s="15">
         <v>9000</v>
       </c>
@@ -13961,10 +14162,10 @@
       <c r="C86" s="18">
         <v>26825</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="61">
         <v>10184</v>
       </c>
-      <c r="E86" s="51"/>
+      <c r="E86" s="62"/>
       <c r="F86" s="18">
         <v>8472</v>
       </c>
@@ -13985,10 +14186,10 @@
       <c r="C87" s="15">
         <v>95115</v>
       </c>
-      <c r="D87" s="50">
+      <c r="D87" s="63">
         <v>9672</v>
       </c>
-      <c r="E87" s="51"/>
+      <c r="E87" s="62"/>
       <c r="F87" s="15">
         <v>7848</v>
       </c>
@@ -14009,10 +14210,10 @@
       <c r="C88" s="18">
         <v>11040</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="61">
         <v>5768</v>
       </c>
-      <c r="E88" s="51"/>
+      <c r="E88" s="62"/>
       <c r="F88" s="18">
         <v>3752</v>
       </c>
@@ -14033,10 +14234,10 @@
       <c r="C89" s="15">
         <v>5448</v>
       </c>
-      <c r="D89" s="50">
+      <c r="D89" s="63">
         <v>5688</v>
       </c>
-      <c r="E89" s="51"/>
+      <c r="E89" s="62"/>
       <c r="F89" s="15">
         <v>4248</v>
       </c>
@@ -14057,10 +14258,10 @@
       <c r="C90" s="18">
         <v>7280</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="61">
         <v>2040</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="18">
         <v>992</v>
       </c>
@@ -14081,10 +14282,10 @@
       <c r="C91" s="15">
         <v>2391</v>
       </c>
-      <c r="D91" s="50">
+      <c r="D91" s="63">
         <v>1992</v>
       </c>
-      <c r="E91" s="51"/>
+      <c r="E91" s="62"/>
       <c r="F91" s="15">
         <v>1912</v>
       </c>
@@ -14105,10 +14306,10 @@
       <c r="C92" s="18">
         <v>2350</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="61">
         <v>512</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="62"/>
       <c r="F92" s="18">
         <v>424</v>
       </c>
@@ -14129,10 +14330,10 @@
       <c r="C93" s="15">
         <v>1869</v>
       </c>
-      <c r="D93" s="50">
+      <c r="D93" s="63">
         <v>440</v>
       </c>
-      <c r="E93" s="51"/>
+      <c r="E93" s="62"/>
       <c r="F93" s="15">
         <v>136</v>
       </c>
@@ -14153,10 +14354,10 @@
       <c r="C94" s="18">
         <v>4421</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="61">
         <v>432</v>
       </c>
-      <c r="E94" s="51"/>
+      <c r="E94" s="62"/>
       <c r="F94" s="18">
         <v>264</v>
       </c>
@@ -14177,10 +14378,10 @@
       <c r="C95" s="15">
         <v>592</v>
       </c>
-      <c r="D95" s="50">
+      <c r="D95" s="63">
         <v>384</v>
       </c>
-      <c r="E95" s="51"/>
+      <c r="E95" s="62"/>
       <c r="F95" s="15">
         <v>296</v>
       </c>
@@ -14201,10 +14402,10 @@
       <c r="C96" s="18">
         <v>944</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="61">
         <v>248</v>
       </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="62"/>
       <c r="F96" s="18">
         <v>136</v>
       </c>
@@ -14225,10 +14426,10 @@
       <c r="C97" s="15">
         <v>1204</v>
       </c>
-      <c r="D97" s="50">
+      <c r="D97" s="63">
         <v>248</v>
       </c>
-      <c r="E97" s="51"/>
+      <c r="E97" s="62"/>
       <c r="F97" s="15">
         <v>144</v>
       </c>
@@ -14249,10 +14450,10 @@
       <c r="C98" s="18">
         <v>681</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="61">
         <v>224</v>
       </c>
-      <c r="E98" s="51"/>
+      <c r="E98" s="62"/>
       <c r="F98" s="18">
         <v>72</v>
       </c>
@@ -14273,10 +14474,10 @@
       <c r="C99" s="15">
         <v>765</v>
       </c>
-      <c r="D99" s="50">
+      <c r="D99" s="63">
         <v>216</v>
       </c>
-      <c r="E99" s="51"/>
+      <c r="E99" s="62"/>
       <c r="F99" s="15">
         <v>168</v>
       </c>
@@ -14297,10 +14498,10 @@
       <c r="C100" s="18">
         <v>6</v>
       </c>
-      <c r="D100" s="52">
+      <c r="D100" s="61">
         <v>136</v>
       </c>
-      <c r="E100" s="51"/>
+      <c r="E100" s="62"/>
       <c r="F100" s="18">
         <v>16</v>
       </c>
@@ -14321,10 +14522,10 @@
       <c r="C101" s="15">
         <v>222</v>
       </c>
-      <c r="D101" s="50">
+      <c r="D101" s="63">
         <v>104</v>
       </c>
-      <c r="E101" s="51"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="15">
         <v>16</v>
       </c>
@@ -14345,10 +14546,10 @@
       <c r="C102" s="18">
         <v>356</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="61">
         <v>56</v>
       </c>
-      <c r="E102" s="51"/>
+      <c r="E102" s="62"/>
       <c r="F102" s="18">
         <v>40</v>
       </c>
@@ -14369,10 +14570,10 @@
       <c r="C103" s="15">
         <v>741</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="63">
         <v>48</v>
       </c>
-      <c r="E103" s="51"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="15">
         <v>32</v>
       </c>
@@ -14393,10 +14594,10 @@
       <c r="C104" s="18">
         <v>591</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="61">
         <v>48</v>
       </c>
-      <c r="E104" s="51"/>
+      <c r="E104" s="62"/>
       <c r="F104" s="18">
         <v>32</v>
       </c>
@@ -14417,10 +14618,10 @@
       <c r="C105" s="15">
         <v>222</v>
       </c>
-      <c r="D105" s="50">
+      <c r="D105" s="63">
         <v>48</v>
       </c>
-      <c r="E105" s="51"/>
+      <c r="E105" s="62"/>
       <c r="F105" s="15">
         <v>32</v>
       </c>
@@ -14441,10 +14642,10 @@
       <c r="C106" s="18">
         <v>498</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="61">
         <v>40</v>
       </c>
-      <c r="E106" s="51"/>
+      <c r="E106" s="62"/>
       <c r="F106" s="18">
         <v>24</v>
       </c>
@@ -14465,10 +14666,10 @@
       <c r="C107" s="15">
         <v>498</v>
       </c>
-      <c r="D107" s="50">
+      <c r="D107" s="63">
         <v>40</v>
       </c>
-      <c r="E107" s="51"/>
+      <c r="E107" s="62"/>
       <c r="F107" s="15">
         <v>24</v>
       </c>
@@ -14489,10 +14690,10 @@
       <c r="C108" s="18">
         <v>403</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="61">
         <v>40</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="62"/>
       <c r="F108" s="18">
         <v>24</v>
       </c>
@@ -14513,10 +14714,10 @@
       <c r="C109" s="15">
         <v>231</v>
       </c>
-      <c r="D109" s="50">
+      <c r="D109" s="63">
         <v>40</v>
       </c>
-      <c r="E109" s="51"/>
+      <c r="E109" s="62"/>
       <c r="F109" s="15">
         <v>24</v>
       </c>
@@ -14537,10 +14738,10 @@
       <c r="C110" s="18">
         <v>436</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="61">
         <v>32</v>
       </c>
-      <c r="E110" s="51"/>
+      <c r="E110" s="62"/>
       <c r="F110" s="18">
         <v>24</v>
       </c>
@@ -14561,10 +14762,10 @@
       <c r="C111" s="15">
         <v>231</v>
       </c>
-      <c r="D111" s="50">
+      <c r="D111" s="63">
         <v>32</v>
       </c>
-      <c r="E111" s="51"/>
+      <c r="E111" s="62"/>
       <c r="F111" s="15">
         <v>16</v>
       </c>
@@ -14585,10 +14786,10 @@
       <c r="C112" s="18">
         <v>12</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="61">
         <v>16</v>
       </c>
-      <c r="E112" s="51"/>
+      <c r="E112" s="62"/>
       <c r="F112" s="18">
         <v>8</v>
       </c>
@@ -14609,10 +14810,10 @@
       <c r="C113" s="15">
         <v>31</v>
       </c>
-      <c r="D113" s="50">
+      <c r="D113" s="63">
         <v>16</v>
       </c>
-      <c r="E113" s="51"/>
+      <c r="E113" s="62"/>
       <c r="F113" s="15">
         <v>8</v>
       </c>
@@ -14633,10 +14834,10 @@
       <c r="C114" s="18">
         <v>11</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="61">
         <v>16</v>
       </c>
-      <c r="E114" s="51"/>
+      <c r="E114" s="62"/>
       <c r="F114" s="18">
         <v>8</v>
       </c>
@@ -14657,10 +14858,10 @@
       <c r="C115" s="15">
         <v>104</v>
       </c>
-      <c r="D115" s="50">
+      <c r="D115" s="63">
         <v>16</v>
       </c>
-      <c r="E115" s="51"/>
+      <c r="E115" s="62"/>
       <c r="F115" s="15">
         <v>8</v>
       </c>
@@ -14681,10 +14882,10 @@
       <c r="C116" s="18">
         <v>6</v>
       </c>
-      <c r="D116" s="52">
+      <c r="D116" s="61">
         <v>16</v>
       </c>
-      <c r="E116" s="51"/>
+      <c r="E116" s="62"/>
       <c r="F116" s="18">
         <v>8</v>
       </c>
@@ -14705,10 +14906,10 @@
       <c r="C117" s="15">
         <v>4</v>
       </c>
-      <c r="D117" s="50">
+      <c r="D117" s="63">
         <v>16</v>
       </c>
-      <c r="E117" s="51"/>
+      <c r="E117" s="62"/>
       <c r="F117" s="15">
         <v>8</v>
       </c>
@@ -14729,10 +14930,10 @@
       <c r="C118" s="18">
         <v>48</v>
       </c>
-      <c r="D118" s="52">
+      <c r="D118" s="61">
         <v>16</v>
       </c>
-      <c r="E118" s="51"/>
+      <c r="E118" s="62"/>
       <c r="F118" s="18">
         <v>8</v>
       </c>
@@ -14753,10 +14954,10 @@
       <c r="C119" s="15">
         <v>48</v>
       </c>
-      <c r="D119" s="50">
+      <c r="D119" s="63">
         <v>16</v>
       </c>
-      <c r="E119" s="51"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="15">
         <v>8</v>
       </c>
@@ -14777,10 +14978,10 @@
       <c r="C120" s="18">
         <v>11</v>
       </c>
-      <c r="D120" s="52">
+      <c r="D120" s="61">
         <v>16</v>
       </c>
-      <c r="E120" s="51"/>
+      <c r="E120" s="62"/>
       <c r="F120" s="18">
         <v>8</v>
       </c>
@@ -14801,10 +15002,10 @@
       <c r="C121" s="15">
         <v>9</v>
       </c>
-      <c r="D121" s="50">
+      <c r="D121" s="63">
         <v>16</v>
       </c>
-      <c r="E121" s="51"/>
+      <c r="E121" s="62"/>
       <c r="F121" s="15">
         <v>8</v>
       </c>
@@ -14825,10 +15026,10 @@
       <c r="C122" s="18">
         <v>15</v>
       </c>
-      <c r="D122" s="52">
+      <c r="D122" s="61">
         <v>16</v>
       </c>
-      <c r="E122" s="51"/>
+      <c r="E122" s="62"/>
       <c r="F122" s="18">
         <v>8</v>
       </c>
@@ -14849,10 +15050,10 @@
       <c r="C123" s="15">
         <v>138</v>
       </c>
-      <c r="D123" s="50">
+      <c r="D123" s="63">
         <v>16</v>
       </c>
-      <c r="E123" s="51"/>
+      <c r="E123" s="62"/>
       <c r="F123" s="15">
         <v>8</v>
       </c>
@@ -14873,10 +15074,10 @@
       <c r="C124" s="18">
         <v>5</v>
       </c>
-      <c r="D124" s="52">
+      <c r="D124" s="61">
         <v>16</v>
       </c>
-      <c r="E124" s="51"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="18">
         <v>8</v>
       </c>
@@ -14897,10 +15098,10 @@
       <c r="C125" s="15">
         <v>0</v>
       </c>
-      <c r="D125" s="50">
-        <v>0</v>
-      </c>
-      <c r="E125" s="51"/>
+      <c r="D125" s="63">
+        <v>0</v>
+      </c>
+      <c r="E125" s="62"/>
       <c r="F125" s="15">
         <v>0</v>
       </c>
@@ -14921,10 +15122,10 @@
       <c r="C126" s="18">
         <v>0</v>
       </c>
-      <c r="D126" s="52">
-        <v>0</v>
-      </c>
-      <c r="E126" s="51"/>
+      <c r="D126" s="61">
+        <v>0</v>
+      </c>
+      <c r="E126" s="62"/>
       <c r="F126" s="18">
         <v>0</v>
       </c>
@@ -14945,10 +15146,10 @@
       <c r="C127" s="15">
         <v>0</v>
       </c>
-      <c r="D127" s="50">
-        <v>0</v>
-      </c>
-      <c r="E127" s="51"/>
+      <c r="D127" s="63">
+        <v>0</v>
+      </c>
+      <c r="E127" s="62"/>
       <c r="F127" s="15">
         <v>0</v>
       </c>
@@ -14969,10 +15170,10 @@
       <c r="C128" s="18">
         <v>0</v>
       </c>
-      <c r="D128" s="52">
-        <v>0</v>
-      </c>
-      <c r="E128" s="51"/>
+      <c r="D128" s="61">
+        <v>0</v>
+      </c>
+      <c r="E128" s="62"/>
       <c r="F128" s="18">
         <v>0</v>
       </c>
@@ -14993,10 +15194,10 @@
       <c r="C129" s="15">
         <v>0</v>
       </c>
-      <c r="D129" s="50">
-        <v>0</v>
-      </c>
-      <c r="E129" s="51"/>
+      <c r="D129" s="63">
+        <v>0</v>
+      </c>
+      <c r="E129" s="62"/>
       <c r="F129" s="15">
         <v>0</v>
       </c>
@@ -15017,10 +15218,10 @@
       <c r="C130" s="18">
         <v>0</v>
       </c>
-      <c r="D130" s="52">
-        <v>0</v>
-      </c>
-      <c r="E130" s="51"/>
+      <c r="D130" s="61">
+        <v>0</v>
+      </c>
+      <c r="E130" s="62"/>
       <c r="F130" s="18">
         <v>0</v>
       </c>
@@ -15041,10 +15242,10 @@
       <c r="C131" s="15">
         <v>0</v>
       </c>
-      <c r="D131" s="50">
-        <v>0</v>
-      </c>
-      <c r="E131" s="51"/>
+      <c r="D131" s="63">
+        <v>0</v>
+      </c>
+      <c r="E131" s="62"/>
       <c r="F131" s="15">
         <v>0</v>
       </c>
@@ -15065,10 +15266,10 @@
       <c r="C132" s="18">
         <v>0</v>
       </c>
-      <c r="D132" s="52">
-        <v>0</v>
-      </c>
-      <c r="E132" s="51"/>
+      <c r="D132" s="61">
+        <v>0</v>
+      </c>
+      <c r="E132" s="62"/>
       <c r="F132" s="18">
         <v>0</v>
       </c>
@@ -15089,10 +15290,10 @@
       <c r="C133" s="15">
         <v>0</v>
       </c>
-      <c r="D133" s="50">
-        <v>0</v>
-      </c>
-      <c r="E133" s="51"/>
+      <c r="D133" s="63">
+        <v>0</v>
+      </c>
+      <c r="E133" s="62"/>
       <c r="F133" s="15">
         <v>0</v>
       </c>
@@ -15113,10 +15314,10 @@
       <c r="C134" s="18">
         <v>0</v>
       </c>
-      <c r="D134" s="52">
-        <v>0</v>
-      </c>
-      <c r="E134" s="51"/>
+      <c r="D134" s="61">
+        <v>0</v>
+      </c>
+      <c r="E134" s="62"/>
       <c r="F134" s="18">
         <v>0</v>
       </c>
@@ -15137,10 +15338,10 @@
       <c r="C135" s="43">
         <v>0</v>
       </c>
-      <c r="D135" s="61">
-        <v>0</v>
-      </c>
-      <c r="E135" s="60"/>
+      <c r="D135" s="66">
+        <v>0</v>
+      </c>
+      <c r="E135" s="65"/>
       <c r="F135" s="43">
         <v>0</v>
       </c>
@@ -15293,7 +15494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -15338,16 +15539,16 @@
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -15372,16 +15573,16 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -15406,16 +15607,16 @@
     </row>
     <row r="6" spans="1:14" ht="14.45" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -15456,18 +15657,18 @@
     </row>
     <row r="9" spans="1:14" ht="14.45" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -15490,19 +15691,19 @@
     </row>
     <row r="11" spans="1:14" ht="14.45" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="65">
+      <c r="C11" s="60"/>
+      <c r="D11" s="68">
         <v>12736.732063293501</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62" t="s">
+      <c r="E11" s="69"/>
+      <c r="F11" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="58"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -15512,19 +15713,19 @@
     </row>
     <row r="12" spans="1:14" ht="14.45" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="65">
+      <c r="C12" s="60"/>
+      <c r="D12" s="68">
         <v>13013993.1875</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62" t="s">
+      <c r="E12" s="69"/>
+      <c r="F12" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -15534,19 +15735,19 @@
     </row>
     <row r="13" spans="1:14" ht="14.45" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="65">
+      <c r="C13" s="60"/>
+      <c r="D13" s="68">
         <v>28420.4453125</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="58"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -15572,17 +15773,17 @@
     </row>
     <row r="15" spans="1:14" ht="144" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
@@ -15604,18 +15805,18 @@
     </row>
     <row r="17" spans="1:14" ht="14.45" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -15644,16 +15845,16 @@
       <c r="C19" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="57" t="s">
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="I19" s="58"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="20" t="s">
         <v>221</v>
       </c>
@@ -15670,16 +15871,16 @@
       <c r="C20" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="75">
         <v>42641.719264664403</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="72">
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="77">
         <v>5346</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="36">
         <v>923.25</v>
       </c>
@@ -15696,16 +15897,16 @@
       <c r="C21" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="78">
         <v>42641.717529710702</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="74">
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="79">
         <v>4523</v>
       </c>
-      <c r="I21" s="51"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="39">
         <v>839.3125</v>
       </c>
@@ -15722,16 +15923,16 @@
       <c r="C22" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="75">
         <v>42641.715919675902</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="72">
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="77">
         <v>3576</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="36">
         <v>763</v>
       </c>
@@ -15748,16 +15949,16 @@
       <c r="C23" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="78">
         <v>42641.713873993103</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="74">
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="79">
         <v>5040</v>
       </c>
-      <c r="I23" s="51"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="39">
         <v>839.3125</v>
       </c>
@@ -15774,16 +15975,16 @@
       <c r="C24" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="75">
         <v>42641.711875729197</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="72">
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="77">
         <v>6046</v>
       </c>
-      <c r="I24" s="51"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="36">
         <v>839.3125</v>
       </c>
@@ -15800,16 +16001,16 @@
       <c r="C25" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="78">
         <v>42641.710372419002</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="74">
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="79">
         <v>3936</v>
       </c>
-      <c r="I25" s="51"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="39">
         <v>763</v>
       </c>
@@ -15826,16 +16027,16 @@
       <c r="C26" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="75">
         <v>42641.7088407755</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="72">
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="77">
         <v>3396</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="36">
         <v>693.625</v>
       </c>
@@ -15852,16 +16053,16 @@
       <c r="C27" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="78">
         <v>42641.707197569398</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="74">
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="79">
         <v>4463</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="39">
         <v>763</v>
       </c>
@@ -15878,16 +16079,16 @@
       <c r="C28" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="75">
         <v>42641.705670057898</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="72">
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="77">
         <v>3413</v>
       </c>
-      <c r="I28" s="51"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="36">
         <v>763</v>
       </c>
@@ -15904,16 +16105,16 @@
       <c r="C29" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="78">
         <v>42641.704308911998</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="74">
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="79">
         <v>4103</v>
       </c>
-      <c r="I29" s="51"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="39">
         <v>693.625</v>
       </c>
@@ -15930,16 +16131,16 @@
       <c r="C30" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="75">
         <v>42641.703112812502</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="72">
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="77">
         <v>3926</v>
       </c>
-      <c r="I30" s="51"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="36">
         <v>630.5625</v>
       </c>
@@ -15956,16 +16157,16 @@
       <c r="C31" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="73">
+      <c r="D31" s="78">
         <v>42641.701858217602</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="74">
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="79">
         <v>2996</v>
       </c>
-      <c r="I31" s="51"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="39">
         <v>693.625</v>
       </c>
@@ -15982,16 +16183,16 @@
       <c r="C32" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="75">
         <v>42641.700502199099</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="72">
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="77">
         <v>3740</v>
       </c>
-      <c r="I32" s="51"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="36">
         <v>693.625</v>
       </c>
@@ -16008,16 +16209,16 @@
       <c r="C33" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="78">
         <v>42641.699238159701</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="74">
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="79">
         <v>3893</v>
       </c>
-      <c r="I33" s="51"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="39">
         <v>630.5625</v>
       </c>
@@ -16034,16 +16235,16 @@
       <c r="C34" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="75">
         <v>42641.697947187502</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="72">
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="77">
         <v>2993</v>
       </c>
-      <c r="I34" s="51"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="36">
         <v>573.25</v>
       </c>
@@ -16060,16 +16261,16 @@
       <c r="C35" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="78">
         <v>42641.6964451042</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="74">
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="79">
         <v>3486</v>
       </c>
-      <c r="I35" s="51"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="39">
         <v>630.5625</v>
       </c>
@@ -16086,16 +16287,16 @@
       <c r="C36" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="75">
         <v>42641.695223645802</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="72">
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="77">
         <v>2696</v>
       </c>
-      <c r="I36" s="51"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="36">
         <v>630.5625</v>
       </c>
@@ -16112,16 +16313,16 @@
       <c r="C37" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="78">
         <v>42641.694066585602</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="74">
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="79">
         <v>2403</v>
       </c>
-      <c r="I37" s="51"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="39">
         <v>573.25</v>
       </c>
@@ -16138,16 +16339,16 @@
       <c r="C38" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="75">
         <v>42641.693061261598</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="72">
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="77">
         <v>2503</v>
       </c>
-      <c r="I38" s="51"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="36">
         <v>521.125</v>
       </c>
@@ -16164,16 +16365,16 @@
       <c r="C39" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="78">
         <v>42641.691946493098</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="74">
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="79">
         <v>3643</v>
       </c>
-      <c r="I39" s="51"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="39">
         <v>573.25</v>
       </c>
@@ -16190,16 +16391,16 @@
       <c r="C40" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="75">
         <v>42641.690591631901</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="72">
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="77">
         <v>3743</v>
       </c>
-      <c r="I40" s="51"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="36">
         <v>573.25</v>
       </c>
@@ -16216,16 +16417,16 @@
       <c r="C41" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="78">
         <v>42641.689321643498</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="74">
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="79">
         <v>2336</v>
       </c>
-      <c r="I41" s="51"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="39">
         <v>521.125</v>
       </c>
@@ -16242,16 +16443,16 @@
       <c r="C42" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="75">
         <v>42641.688258414397</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="72">
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="77">
         <v>2286</v>
       </c>
-      <c r="I42" s="51"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="36">
         <v>473.75</v>
       </c>
@@ -16268,16 +16469,16 @@
       <c r="C43" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="78">
         <v>42641.687072141198</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="74">
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="79">
         <v>2813</v>
       </c>
-      <c r="I43" s="51"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="39">
         <v>521.125</v>
       </c>
@@ -16294,16 +16495,16 @@
       <c r="C44" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="75">
         <v>42641.685967939797</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="72">
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="77">
         <v>2283</v>
       </c>
-      <c r="I44" s="51"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="36">
         <v>521.125</v>
       </c>
@@ -16320,16 +16521,16 @@
       <c r="C45" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="78">
         <v>42641.6849399653</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="74">
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="79">
         <v>4493</v>
       </c>
-      <c r="I45" s="51"/>
+      <c r="I45" s="62"/>
       <c r="J45" s="39">
         <v>473.75</v>
       </c>
@@ -16346,16 +16547,16 @@
       <c r="C46" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="75">
         <v>42641.684130127302</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="72">
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="77">
         <v>2496</v>
       </c>
-      <c r="I46" s="51"/>
+      <c r="I46" s="62"/>
       <c r="J46" s="36">
         <v>430.6875</v>
       </c>
@@ -16372,16 +16573,16 @@
       <c r="C47" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="78">
         <v>42641.683249502297</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="74">
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="79">
         <v>2496</v>
       </c>
-      <c r="I47" s="51"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="39">
         <v>473.75</v>
       </c>
@@ -16398,16 +16599,16 @@
       <c r="C48" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="75">
         <v>42641.6822720255</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="72">
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="77">
         <v>2233</v>
       </c>
-      <c r="I48" s="51"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="36">
         <v>473.75</v>
       </c>
@@ -16424,16 +16625,16 @@
       <c r="C49" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="78">
         <v>42641.681410069403</v>
       </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="74">
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="79">
         <v>2660</v>
       </c>
-      <c r="I49" s="51"/>
+      <c r="I49" s="62"/>
       <c r="J49" s="39">
         <v>430.6875</v>
       </c>
@@ -16450,16 +16651,16 @@
       <c r="C50" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="75">
         <v>42641.680551620397</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="72">
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="77">
         <v>1933</v>
       </c>
-      <c r="I50" s="51"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="36">
         <v>391.5625</v>
       </c>
@@ -16476,16 +16677,16 @@
       <c r="C51" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="78">
         <v>42641.679602280099</v>
       </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="74">
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="79">
         <v>2116</v>
       </c>
-      <c r="I51" s="51"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="39">
         <v>430.6875</v>
       </c>
@@ -16502,16 +16703,16 @@
       <c r="C52" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="70">
+      <c r="D52" s="75">
         <v>42641.678649305599</v>
       </c>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="72">
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="77">
         <v>2563</v>
       </c>
-      <c r="I52" s="51"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="36">
         <v>430.6875</v>
       </c>
@@ -16528,16 +16729,16 @@
       <c r="C53" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D53" s="73">
+      <c r="D53" s="78">
         <v>42641.677880590301</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="74">
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="79">
         <v>1843</v>
       </c>
-      <c r="I53" s="51"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="39">
         <v>391.5625</v>
       </c>
@@ -16554,16 +16755,16 @@
       <c r="C54" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="70">
+      <c r="D54" s="75">
         <v>42641.677190972201</v>
       </c>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="72">
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="77">
         <v>1920</v>
       </c>
-      <c r="I54" s="51"/>
+      <c r="I54" s="62"/>
       <c r="J54" s="36">
         <v>355.9375</v>
       </c>
@@ -16580,16 +16781,16 @@
       <c r="C55" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="73">
+      <c r="D55" s="78">
         <v>42641.676487303201</v>
       </c>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="74">
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="79">
         <v>1806</v>
       </c>
-      <c r="I55" s="51"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="39">
         <v>391.5625</v>
       </c>
@@ -16606,16 +16807,16 @@
       <c r="C56" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="70">
+      <c r="D56" s="75">
         <v>42641.675828009298</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="72">
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="77">
         <v>1790</v>
       </c>
-      <c r="I56" s="51"/>
+      <c r="I56" s="62"/>
       <c r="J56" s="36">
         <v>391.5625</v>
       </c>
@@ -16632,16 +16833,16 @@
       <c r="C57" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="73">
+      <c r="D57" s="78">
         <v>42641.675201307902</v>
       </c>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="74">
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="79">
         <v>1686</v>
       </c>
-      <c r="I57" s="51"/>
+      <c r="I57" s="62"/>
       <c r="J57" s="39">
         <v>355.9375</v>
       </c>
@@ -16658,16 +16859,16 @@
       <c r="C58" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58" s="75">
         <v>42641.674626851898</v>
       </c>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="72">
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="77">
         <v>2623</v>
       </c>
-      <c r="I58" s="51"/>
+      <c r="I58" s="62"/>
       <c r="J58" s="36">
         <v>323.625</v>
       </c>
@@ -16684,16 +16885,16 @@
       <c r="C59" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D59" s="73">
+      <c r="D59" s="78">
         <v>42641.673927465301</v>
       </c>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="74">
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="79">
         <v>1816</v>
       </c>
-      <c r="I59" s="51"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="39">
         <v>355.9375</v>
       </c>
@@ -16710,16 +16911,16 @@
       <c r="C60" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="70">
+      <c r="D60" s="75">
         <v>42641.673234062502</v>
       </c>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="72">
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="77">
         <v>1870</v>
       </c>
-      <c r="I60" s="51"/>
+      <c r="I60" s="62"/>
       <c r="J60" s="36">
         <v>355.9375</v>
       </c>
@@ -16736,16 +16937,16 @@
       <c r="C61" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="75">
+      <c r="D61" s="80">
         <v>42641.672570486102</v>
       </c>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="77">
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="82">
         <v>3036</v>
       </c>
-      <c r="I61" s="60"/>
+      <c r="I61" s="65"/>
       <c r="J61" s="33">
         <v>323.625</v>
       </c>
@@ -16772,18 +16973,18 @@
     </row>
     <row r="63" spans="1:14" ht="14.45" customHeight="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="69" t="s">
+      <c r="B63" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -16812,14 +17013,14 @@
       <c r="C65" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="58"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="60"/>
       <c r="J65" s="20" t="s">
         <v>184</v>
       </c>
@@ -16838,14 +17039,14 @@
       <c r="C66" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="51"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="62"/>
       <c r="J66" s="30" t="s">
         <v>212</v>
       </c>
@@ -16864,14 +17065,14 @@
       <c r="C67" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="51"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="62"/>
       <c r="J67" s="26" t="s">
         <v>208</v>
       </c>
@@ -16890,14 +17091,14 @@
       <c r="C68" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="79" t="s">
+      <c r="D68" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="51"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="62"/>
       <c r="J68" s="30" t="s">
         <v>204</v>
       </c>
@@ -16916,14 +17117,14 @@
       <c r="C69" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="51"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="62"/>
       <c r="J69" s="26" t="s">
         <v>194</v>
       </c>
@@ -16942,14 +17143,14 @@
       <c r="C70" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="79" t="s">
+      <c r="D70" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="51"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="62"/>
       <c r="J70" s="30" t="s">
         <v>194</v>
       </c>
@@ -16968,14 +17169,14 @@
       <c r="C71" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="78" t="s">
+      <c r="D71" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="51"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="62"/>
       <c r="J71" s="26" t="s">
         <v>194</v>
       </c>
@@ -16994,14 +17195,14 @@
       <c r="C72" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="60"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="65"/>
       <c r="J72" s="22" t="s">
         <v>189</v>
       </c>
@@ -17036,14 +17237,14 @@
       <c r="C74" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="58"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="60"/>
       <c r="J74" s="20" t="s">
         <v>184</v>
       </c>
@@ -17177,7 +17378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -17224,17 +17425,17 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -17260,17 +17461,17 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -17296,17 +17497,17 @@
     </row>
     <row r="6" spans="1:15" ht="14.45" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -17349,19 +17550,19 @@
     </row>
     <row r="9" spans="1:15" ht="14.45" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -17385,20 +17586,20 @@
     </row>
     <row r="11" spans="1:15" ht="14.45" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="65">
+      <c r="C11" s="69"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="68">
         <v>15649.4091873169</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="62" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -17408,20 +17609,20 @@
     </row>
     <row r="12" spans="1:15" ht="14.45" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="65">
+      <c r="C12" s="69"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="68">
         <v>15997413.875</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="62" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="58"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -17431,20 +17632,20 @@
     </row>
     <row r="13" spans="1:15" ht="14.45" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="65">
+      <c r="C13" s="69"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="68">
         <v>27581.1328125</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="62" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -17471,18 +17672,18 @@
     </row>
     <row r="15" spans="1:15" ht="144" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="68"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
@@ -17505,19 +17706,19 @@
     </row>
     <row r="17" spans="1:15" ht="14.45" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -17541,23 +17742,23 @@
     </row>
     <row r="19" spans="1:15" ht="21" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="57" t="s">
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="J19" s="58"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="20" t="s">
         <v>221</v>
       </c>
@@ -17568,23 +17769,23 @@
     </row>
     <row r="20" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="75">
         <v>42642.681083912001</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="72">
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="77">
         <v>3500</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="36">
         <v>923.25</v>
       </c>
@@ -17595,23 +17796,23 @@
     </row>
     <row r="21" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="78">
         <v>42642.6788246875</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="74">
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="79">
         <v>3923</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="39">
         <v>923.25</v>
       </c>
@@ -17622,23 +17823,23 @@
     </row>
     <row r="22" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="75">
         <v>42642.675947719901</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="72">
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="77">
         <v>4610</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="36">
         <v>763</v>
       </c>
@@ -17649,23 +17850,23 @@
     </row>
     <row r="23" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="78">
         <v>42642.674297338002</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="74">
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="79">
         <v>4440</v>
       </c>
-      <c r="J23" s="51"/>
+      <c r="J23" s="62"/>
       <c r="K23" s="39">
         <v>763</v>
       </c>
@@ -17676,23 +17877,23 @@
     </row>
     <row r="24" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="75">
         <v>42642.672457986097</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="72">
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="77">
         <v>4620</v>
       </c>
-      <c r="J24" s="51"/>
+      <c r="J24" s="62"/>
       <c r="K24" s="36">
         <v>839.3125</v>
       </c>
@@ -17703,23 +17904,23 @@
     </row>
     <row r="25" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="78">
         <v>42642.6705057523</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="74">
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="79">
         <v>4500</v>
       </c>
-      <c r="J25" s="51"/>
+      <c r="J25" s="62"/>
       <c r="K25" s="39">
         <v>839.3125</v>
       </c>
@@ -17730,23 +17931,23 @@
     </row>
     <row r="26" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="75">
         <v>42642.668890740701</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="72">
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="77">
         <v>4146</v>
       </c>
-      <c r="J26" s="51"/>
+      <c r="J26" s="62"/>
       <c r="K26" s="36">
         <v>693.625</v>
       </c>
@@ -17757,23 +17958,23 @@
     </row>
     <row r="27" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="78">
         <v>42642.667246840298</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="74">
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="79">
         <v>3443</v>
       </c>
-      <c r="J27" s="51"/>
+      <c r="J27" s="62"/>
       <c r="K27" s="39">
         <v>693.625</v>
       </c>
@@ -17784,23 +17985,23 @@
     </row>
     <row r="28" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="75">
         <v>42642.665488854203</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="72">
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="77">
         <v>2983</v>
       </c>
-      <c r="J28" s="51"/>
+      <c r="J28" s="62"/>
       <c r="K28" s="36">
         <v>763</v>
       </c>
@@ -17811,23 +18012,23 @@
     </row>
     <row r="29" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="78">
         <v>42642.663787615696</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="74">
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="79">
         <v>4330</v>
       </c>
-      <c r="J29" s="51"/>
+      <c r="J29" s="62"/>
       <c r="K29" s="39">
         <v>763</v>
       </c>
@@ -17838,23 +18039,23 @@
     </row>
     <row r="30" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="75">
         <v>42642.662350115701</v>
       </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="72">
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="77">
         <v>3016</v>
       </c>
-      <c r="J30" s="51"/>
+      <c r="J30" s="62"/>
       <c r="K30" s="36">
         <v>630.5625</v>
       </c>
@@ -17865,23 +18066,23 @@
     </row>
     <row r="31" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="78">
         <v>42642.6609831366</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="74">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="79">
         <v>3466</v>
       </c>
-      <c r="J31" s="51"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="39">
         <v>630.5625</v>
       </c>
@@ -17892,23 +18093,23 @@
     </row>
     <row r="32" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="75">
         <v>42642.659506400501</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="72">
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="77">
         <v>3006</v>
       </c>
-      <c r="J32" s="51"/>
+      <c r="J32" s="62"/>
       <c r="K32" s="36">
         <v>693.625</v>
       </c>
@@ -17919,23 +18120,23 @@
     </row>
     <row r="33" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="78">
         <v>42642.658003090299</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="74">
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="79">
         <v>3326</v>
       </c>
-      <c r="J33" s="51"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="39">
         <v>693.625</v>
       </c>
@@ -17946,23 +18147,23 @@
     </row>
     <row r="34" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="75">
         <v>42642.6567552083</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="72">
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="77">
         <v>2380</v>
       </c>
-      <c r="J34" s="51"/>
+      <c r="J34" s="62"/>
       <c r="K34" s="36">
         <v>573.25</v>
       </c>
@@ -17973,23 +18174,23 @@
     </row>
     <row r="35" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="78">
         <v>42642.655515740698</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="74">
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="79">
         <v>2476</v>
       </c>
-      <c r="J35" s="51"/>
+      <c r="J35" s="62"/>
       <c r="K35" s="39">
         <v>573.25</v>
       </c>
@@ -18000,23 +18201,23 @@
     </row>
     <row r="36" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A36" s="10"/>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="75">
         <v>42642.654152893498</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="72">
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="77">
         <v>3330</v>
       </c>
-      <c r="J36" s="51"/>
+      <c r="J36" s="62"/>
       <c r="K36" s="36">
         <v>630.5625</v>
       </c>
@@ -18027,23 +18228,23 @@
     </row>
     <row r="37" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A37" s="10"/>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="78">
         <v>42642.652834838002</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="74">
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="79">
         <v>2510</v>
       </c>
-      <c r="J37" s="51"/>
+      <c r="J37" s="62"/>
       <c r="K37" s="39">
         <v>630.5625</v>
       </c>
@@ -18054,23 +18255,23 @@
     </row>
     <row r="38" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A38" s="10"/>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="75">
         <v>42642.651780243097</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="72">
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="77">
         <v>2583</v>
       </c>
-      <c r="J38" s="51"/>
+      <c r="J38" s="62"/>
       <c r="K38" s="36">
         <v>521.125</v>
       </c>
@@ -18081,23 +18282,23 @@
     </row>
     <row r="39" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A39" s="10"/>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="78">
         <v>42642.650738344899</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="74">
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="79">
         <v>2793</v>
       </c>
-      <c r="J39" s="51"/>
+      <c r="J39" s="62"/>
       <c r="K39" s="39">
         <v>521.125</v>
       </c>
@@ -18108,23 +18309,23 @@
     </row>
     <row r="40" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A40" s="10"/>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="75">
         <v>42642.649542361098</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="72">
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="77">
         <v>3563</v>
       </c>
-      <c r="J40" s="51"/>
+      <c r="J40" s="62"/>
       <c r="K40" s="36">
         <v>573.25</v>
       </c>
@@ -18135,23 +18336,23 @@
     </row>
     <row r="41" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A41" s="10"/>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="78">
         <v>42642.648354398101</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="74">
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="79">
         <v>3563</v>
       </c>
-      <c r="J41" s="51"/>
+      <c r="J41" s="62"/>
       <c r="K41" s="39">
         <v>573.25</v>
       </c>
@@ -18162,23 +18363,23 @@
     </row>
     <row r="42" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A42" s="10"/>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="75">
         <v>42642.647381678202</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="72">
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="77">
         <v>3526</v>
       </c>
-      <c r="J42" s="51"/>
+      <c r="J42" s="62"/>
       <c r="K42" s="36">
         <v>473.75</v>
       </c>
@@ -18189,23 +18390,23 @@
     </row>
     <row r="43" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A43" s="10"/>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="78">
         <v>42642.646403553197</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="74">
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="79">
         <v>1983</v>
       </c>
-      <c r="J43" s="51"/>
+      <c r="J43" s="62"/>
       <c r="K43" s="39">
         <v>473.75</v>
       </c>
@@ -18216,23 +18417,23 @@
     </row>
     <row r="44" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A44" s="10"/>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="75">
         <v>42642.645428668999</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="72">
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="77">
         <v>2986</v>
       </c>
-      <c r="J44" s="51"/>
+      <c r="J44" s="62"/>
       <c r="K44" s="36">
         <v>521.125</v>
       </c>
@@ -18243,23 +18444,23 @@
     </row>
     <row r="45" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A45" s="10"/>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="78">
         <v>42642.644401539401</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="74">
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="79">
         <v>4080</v>
       </c>
-      <c r="J45" s="51"/>
+      <c r="J45" s="62"/>
       <c r="K45" s="39">
         <v>521.125</v>
       </c>
@@ -18270,23 +18471,23 @@
     </row>
     <row r="46" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A46" s="10"/>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="75">
         <v>42642.643545370403</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="72">
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="77">
         <v>3150</v>
       </c>
-      <c r="J46" s="51"/>
+      <c r="J46" s="62"/>
       <c r="K46" s="36">
         <v>430.6875</v>
       </c>
@@ -18297,23 +18498,23 @@
     </row>
     <row r="47" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="51"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="78">
         <v>42642.642709756903</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="74">
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="79">
         <v>1813</v>
       </c>
-      <c r="J47" s="51"/>
+      <c r="J47" s="62"/>
       <c r="K47" s="39">
         <v>430.6875</v>
       </c>
@@ -18324,23 +18525,23 @@
     </row>
     <row r="48" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A48" s="10"/>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="75">
         <v>42642.641789664398</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="72">
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="77">
         <v>2173</v>
       </c>
-      <c r="J48" s="51"/>
+      <c r="J48" s="62"/>
       <c r="K48" s="36">
         <v>473.75</v>
       </c>
@@ -18351,23 +18552,23 @@
     </row>
     <row r="49" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="78">
         <v>42642.640880057901</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="74">
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="79">
         <v>1893</v>
       </c>
-      <c r="J49" s="51"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="39">
         <v>473.75</v>
       </c>
@@ -18378,23 +18579,23 @@
     </row>
     <row r="50" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A50" s="10"/>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="75">
         <v>42642.640104780097</v>
       </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="72">
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="77">
         <v>2793</v>
       </c>
-      <c r="J50" s="51"/>
+      <c r="J50" s="62"/>
       <c r="K50" s="36">
         <v>391.5625</v>
       </c>
@@ -18405,23 +18606,23 @@
     </row>
     <row r="51" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A51" s="10"/>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="78">
         <v>42642.639259490701</v>
       </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="74">
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="79">
         <v>2866</v>
       </c>
-      <c r="J51" s="51"/>
+      <c r="J51" s="62"/>
       <c r="K51" s="39">
         <v>391.5625</v>
       </c>
@@ -18432,23 +18633,23 @@
     </row>
     <row r="52" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A52" s="10"/>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E52" s="70">
+      <c r="E52" s="75">
         <v>42642.638379282398</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="72">
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="77">
         <v>1953</v>
       </c>
-      <c r="J52" s="51"/>
+      <c r="J52" s="62"/>
       <c r="K52" s="36">
         <v>430.6875</v>
       </c>
@@ -18459,23 +18660,23 @@
     </row>
     <row r="53" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A53" s="10"/>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="73">
+      <c r="E53" s="78">
         <v>42642.6374510764</v>
       </c>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="74">
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="79">
         <v>2596</v>
       </c>
-      <c r="J53" s="51"/>
+      <c r="J53" s="62"/>
       <c r="K53" s="39">
         <v>430.6875</v>
       </c>
@@ -18486,23 +18687,23 @@
     </row>
     <row r="54" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A54" s="10"/>
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="75">
         <v>42642.636658761599</v>
       </c>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="72">
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="77">
         <v>1583</v>
       </c>
-      <c r="J54" s="51"/>
+      <c r="J54" s="62"/>
       <c r="K54" s="36">
         <v>355.9375</v>
       </c>
@@ -18513,23 +18714,23 @@
     </row>
     <row r="55" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A55" s="10"/>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="73">
+      <c r="E55" s="78">
         <v>42642.635906909702</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="74">
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="79">
         <v>1670</v>
       </c>
-      <c r="J55" s="51"/>
+      <c r="J55" s="62"/>
       <c r="K55" s="39">
         <v>355.9375</v>
       </c>
@@ -18540,23 +18741,23 @@
     </row>
     <row r="56" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A56" s="10"/>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="70">
+      <c r="E56" s="75">
         <v>42642.635125196801</v>
       </c>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="72">
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="77">
         <v>1540</v>
       </c>
-      <c r="J56" s="51"/>
+      <c r="J56" s="62"/>
       <c r="K56" s="36">
         <v>391.5625</v>
       </c>
@@ -18567,23 +18768,23 @@
     </row>
     <row r="57" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A57" s="10"/>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E57" s="73">
+      <c r="E57" s="78">
         <v>42642.634285844899</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="74">
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="79">
         <v>1880</v>
       </c>
-      <c r="J57" s="51"/>
+      <c r="J57" s="62"/>
       <c r="K57" s="39">
         <v>391.5625</v>
       </c>
@@ -18594,23 +18795,23 @@
     </row>
     <row r="58" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A58" s="10"/>
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="75">
         <v>42642.633543171301</v>
       </c>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="72">
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="77">
         <v>1410</v>
       </c>
-      <c r="J58" s="51"/>
+      <c r="J58" s="62"/>
       <c r="K58" s="36">
         <v>323.625</v>
       </c>
@@ -18621,23 +18822,23 @@
     </row>
     <row r="59" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A59" s="10"/>
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E59" s="73">
+      <c r="E59" s="78">
         <v>42642.632858761601</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="74">
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="79">
         <v>1706</v>
       </c>
-      <c r="J59" s="51"/>
+      <c r="J59" s="62"/>
       <c r="K59" s="39">
         <v>323.625</v>
       </c>
@@ -18648,23 +18849,23 @@
     </row>
     <row r="60" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="70">
+      <c r="E60" s="75">
         <v>42642.632065705999</v>
       </c>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="72">
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="77">
         <v>2186</v>
       </c>
-      <c r="J60" s="51"/>
+      <c r="J60" s="62"/>
       <c r="K60" s="36">
         <v>355.9375</v>
       </c>
@@ -18675,23 +18876,23 @@
     </row>
     <row r="61" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="73">
+      <c r="E61" s="78">
         <v>42642.631401273102</v>
       </c>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="74">
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="79">
         <v>1540</v>
       </c>
-      <c r="J61" s="51"/>
+      <c r="J61" s="62"/>
       <c r="K61" s="39">
         <v>355.9375</v>
       </c>
@@ -18702,23 +18903,23 @@
     </row>
     <row r="62" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A62" s="10"/>
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E62" s="70">
+      <c r="E62" s="75">
         <v>42642.630758564803</v>
       </c>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="72">
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="77">
         <v>1350</v>
       </c>
-      <c r="J62" s="51"/>
+      <c r="J62" s="62"/>
       <c r="K62" s="36">
         <v>294.1875</v>
       </c>
@@ -18729,23 +18930,23 @@
     </row>
     <row r="63" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="73">
+      <c r="E63" s="78">
         <v>42642.630132557897</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="74">
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="79">
         <v>1336</v>
       </c>
-      <c r="J63" s="51"/>
+      <c r="J63" s="62"/>
       <c r="K63" s="39">
         <v>294.1875</v>
       </c>
@@ -18756,23 +18957,23 @@
     </row>
     <row r="64" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A64" s="10"/>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="70">
+      <c r="E64" s="75">
         <v>42642.629504513898</v>
       </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="72">
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="77">
         <v>1376</v>
       </c>
-      <c r="J64" s="51"/>
+      <c r="J64" s="62"/>
       <c r="K64" s="36">
         <v>323.625</v>
       </c>
@@ -18783,23 +18984,23 @@
     </row>
     <row r="65" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="73">
+      <c r="E65" s="78">
         <v>42642.628934838001</v>
       </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="74">
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="79">
         <v>1303</v>
       </c>
-      <c r="J65" s="51"/>
+      <c r="J65" s="62"/>
       <c r="K65" s="39">
         <v>323.625</v>
       </c>
@@ -18810,23 +19011,23 @@
     </row>
     <row r="66" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="70">
+      <c r="E66" s="75">
         <v>42642.628418669003</v>
       </c>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="72">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="77">
         <v>1236</v>
       </c>
-      <c r="J66" s="51"/>
+      <c r="J66" s="62"/>
       <c r="K66" s="36">
         <v>267.4375</v>
       </c>
@@ -18837,23 +19038,23 @@
     </row>
     <row r="67" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="82" t="s">
+      <c r="B67" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="78">
         <v>42642.627883252302</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="74">
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="79">
         <v>1503</v>
       </c>
-      <c r="J67" s="51"/>
+      <c r="J67" s="62"/>
       <c r="K67" s="39">
         <v>267.4375</v>
       </c>
@@ -18864,23 +19065,23 @@
     </row>
     <row r="68" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="70">
+      <c r="E68" s="75">
         <v>42642.627352002302</v>
       </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="72">
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="77">
         <v>1630</v>
       </c>
-      <c r="J68" s="51"/>
+      <c r="J68" s="62"/>
       <c r="K68" s="36">
         <v>294.1875</v>
       </c>
@@ -18891,23 +19092,23 @@
     </row>
     <row r="69" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A69" s="10"/>
-      <c r="B69" s="82" t="s">
+      <c r="B69" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E69" s="73">
+      <c r="E69" s="78">
         <v>42642.626832905102</v>
       </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="74">
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="79">
         <v>1283</v>
       </c>
-      <c r="J69" s="51"/>
+      <c r="J69" s="62"/>
       <c r="K69" s="39">
         <v>294.1875</v>
       </c>
@@ -18918,23 +19119,23 @@
     </row>
     <row r="70" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="70">
+      <c r="E70" s="75">
         <v>42642.626360497699</v>
       </c>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="72">
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="77">
         <v>1103</v>
       </c>
-      <c r="J70" s="51"/>
+      <c r="J70" s="62"/>
       <c r="K70" s="36">
         <v>243.125</v>
       </c>
@@ -18945,23 +19146,23 @@
     </row>
     <row r="71" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A71" s="10"/>
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="73">
+      <c r="E71" s="78">
         <v>42642.625457986098</v>
       </c>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="74">
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="79">
         <v>1080</v>
       </c>
-      <c r="J71" s="51"/>
+      <c r="J71" s="62"/>
       <c r="K71" s="39">
         <v>243.125</v>
       </c>
@@ -18972,23 +19173,23 @@
     </row>
     <row r="72" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A72" s="10"/>
-      <c r="B72" s="81" t="s">
+      <c r="B72" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E72" s="70">
+      <c r="E72" s="75">
         <v>42642.6254239583</v>
       </c>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="72">
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="77">
         <v>1183</v>
       </c>
-      <c r="J72" s="51"/>
+      <c r="J72" s="62"/>
       <c r="K72" s="36">
         <v>267.4375</v>
       </c>
@@ -18999,23 +19200,23 @@
     </row>
     <row r="73" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A73" s="10"/>
-      <c r="B73" s="82" t="s">
+      <c r="B73" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="73">
+      <c r="E73" s="78">
         <v>42642.620267708298</v>
       </c>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="74">
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="79">
         <v>1426</v>
       </c>
-      <c r="J73" s="51"/>
+      <c r="J73" s="62"/>
       <c r="K73" s="39">
         <v>267.4375</v>
       </c>
@@ -19026,23 +19227,23 @@
     </row>
     <row r="74" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A74" s="10"/>
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="51"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="70">
+      <c r="E74" s="75">
         <v>42642.619328125002</v>
       </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="72">
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="77">
         <v>1113</v>
       </c>
-      <c r="J74" s="51"/>
+      <c r="J74" s="62"/>
       <c r="K74" s="36">
         <v>221</v>
       </c>
@@ -19053,23 +19254,23 @@
     </row>
     <row r="75" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A75" s="10"/>
-      <c r="B75" s="82" t="s">
+      <c r="B75" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="73">
+      <c r="E75" s="78">
         <v>42642.618439502301</v>
       </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="74">
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="79">
         <v>1266</v>
       </c>
-      <c r="J75" s="51"/>
+      <c r="J75" s="62"/>
       <c r="K75" s="39">
         <v>221</v>
       </c>
@@ -19080,23 +19281,23 @@
     </row>
     <row r="76" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A76" s="10"/>
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E76" s="70">
+      <c r="E76" s="75">
         <v>42642.617480983798</v>
       </c>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="72">
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="77">
         <v>1210</v>
       </c>
-      <c r="J76" s="51"/>
+      <c r="J76" s="62"/>
       <c r="K76" s="36">
         <v>243.125</v>
       </c>
@@ -19107,23 +19308,23 @@
     </row>
     <row r="77" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A77" s="10"/>
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E77" s="73">
+      <c r="E77" s="78">
         <v>42642.616457719902</v>
       </c>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="74">
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="79">
         <v>1203</v>
       </c>
-      <c r="J77" s="51"/>
+      <c r="J77" s="62"/>
       <c r="K77" s="39">
         <v>243.125</v>
       </c>
@@ -19134,23 +19335,23 @@
     </row>
     <row r="78" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A78" s="10"/>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="51"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E78" s="70">
+      <c r="E78" s="75">
         <v>42642.615580787002</v>
       </c>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="72">
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="77">
         <v>1143</v>
       </c>
-      <c r="J78" s="51"/>
+      <c r="J78" s="62"/>
       <c r="K78" s="36">
         <v>200.9375</v>
       </c>
@@ -19161,23 +19362,23 @@
     </row>
     <row r="79" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A79" s="10"/>
-      <c r="B79" s="82" t="s">
+      <c r="B79" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="51"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="78">
         <v>42642.614764201397</v>
       </c>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="74">
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="79">
         <v>1013</v>
       </c>
-      <c r="J79" s="51"/>
+      <c r="J79" s="62"/>
       <c r="K79" s="39">
         <v>200.9375</v>
       </c>
@@ -19188,23 +19389,23 @@
     </row>
     <row r="80" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A80" s="10"/>
-      <c r="B80" s="81" t="s">
+      <c r="B80" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="51"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="70">
+      <c r="E80" s="75">
         <v>42642.613932488399</v>
       </c>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="72">
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="77">
         <v>1193</v>
       </c>
-      <c r="J80" s="51"/>
+      <c r="J80" s="62"/>
       <c r="K80" s="36">
         <v>221</v>
       </c>
@@ -19215,23 +19416,23 @@
     </row>
     <row r="81" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A81" s="10"/>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="51"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E81" s="73">
+      <c r="E81" s="78">
         <v>42642.613122453702</v>
       </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="74">
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="79">
         <v>1266</v>
       </c>
-      <c r="J81" s="51"/>
+      <c r="J81" s="62"/>
       <c r="K81" s="39">
         <v>221</v>
       </c>
@@ -19242,23 +19443,23 @@
     </row>
     <row r="82" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A82" s="10"/>
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="51"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E82" s="70">
+      <c r="E82" s="75">
         <v>42642.612439583303</v>
       </c>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="72">
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="77">
         <v>1020</v>
       </c>
-      <c r="J82" s="51"/>
+      <c r="J82" s="62"/>
       <c r="K82" s="36">
         <v>182.6875</v>
       </c>
@@ -19269,23 +19470,23 @@
     </row>
     <row r="83" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A83" s="10"/>
-      <c r="B83" s="82" t="s">
+      <c r="B83" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C83" s="51"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="73">
+      <c r="E83" s="78">
         <v>42642.611765358801</v>
       </c>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="74">
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="79">
         <v>1023</v>
       </c>
-      <c r="J83" s="51"/>
+      <c r="J83" s="62"/>
       <c r="K83" s="39">
         <v>182.6875</v>
       </c>
@@ -19296,23 +19497,23 @@
     </row>
     <row r="84" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A84" s="10"/>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="51"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="75">
         <v>42642.6109131134</v>
       </c>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="72">
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="77">
         <v>1370</v>
       </c>
-      <c r="J84" s="51"/>
+      <c r="J84" s="62"/>
       <c r="K84" s="36">
         <v>200.9375</v>
       </c>
@@ -19323,23 +19524,23 @@
     </row>
     <row r="85" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A85" s="10"/>
-      <c r="B85" s="82" t="s">
+      <c r="B85" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="51"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E85" s="73">
+      <c r="E85" s="78">
         <v>42642.61005625</v>
       </c>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="74">
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="79">
         <v>1583</v>
       </c>
-      <c r="J85" s="51"/>
+      <c r="J85" s="62"/>
       <c r="K85" s="39">
         <v>200.9375</v>
       </c>
@@ -19350,23 +19551,23 @@
     </row>
     <row r="86" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A86" s="10"/>
-      <c r="B86" s="81" t="s">
+      <c r="B86" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="51"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E86" s="70">
+      <c r="E86" s="75">
         <v>42642.609257210701</v>
       </c>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="72">
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="77">
         <v>1066</v>
       </c>
-      <c r="J86" s="51"/>
+      <c r="J86" s="62"/>
       <c r="K86" s="36">
         <v>166.0625</v>
       </c>
@@ -19377,23 +19578,23 @@
     </row>
     <row r="87" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A87" s="10"/>
-      <c r="B87" s="82" t="s">
+      <c r="B87" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C87" s="51"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E87" s="73">
+      <c r="E87" s="78">
         <v>42642.608536608801</v>
       </c>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="74">
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="79">
         <v>1196</v>
       </c>
-      <c r="J87" s="51"/>
+      <c r="J87" s="62"/>
       <c r="K87" s="39">
         <v>166.0625</v>
       </c>
@@ -19404,23 +19605,23 @@
     </row>
     <row r="88" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A88" s="10"/>
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C88" s="51"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="70">
+      <c r="E88" s="75">
         <v>42642.6077895833</v>
       </c>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="72">
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="77">
         <v>1106</v>
       </c>
-      <c r="J88" s="51"/>
+      <c r="J88" s="62"/>
       <c r="K88" s="36">
         <v>182.6875</v>
       </c>
@@ -19431,23 +19632,23 @@
     </row>
     <row r="89" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A89" s="10"/>
-      <c r="B89" s="82" t="s">
+      <c r="B89" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="51"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E89" s="73">
+      <c r="E89" s="78">
         <v>42642.607081215298</v>
       </c>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="74">
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="79">
         <v>1213</v>
       </c>
-      <c r="J89" s="51"/>
+      <c r="J89" s="62"/>
       <c r="K89" s="39">
         <v>182.6875</v>
       </c>
@@ -19458,23 +19659,23 @@
     </row>
     <row r="90" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A90" s="10"/>
-      <c r="B90" s="81" t="s">
+      <c r="B90" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="51"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E90" s="70">
+      <c r="E90" s="75">
         <v>42642.606498229201</v>
       </c>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="72">
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="77">
         <v>1176</v>
       </c>
-      <c r="J90" s="51"/>
+      <c r="J90" s="62"/>
       <c r="K90" s="36">
         <v>150.9375</v>
       </c>
@@ -19485,23 +19686,23 @@
     </row>
     <row r="91" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A91" s="10"/>
-      <c r="B91" s="82" t="s">
+      <c r="B91" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="51"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="73">
+      <c r="E91" s="78">
         <v>42642.605883912001</v>
       </c>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="74">
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="79">
         <v>753</v>
       </c>
-      <c r="J91" s="51"/>
+      <c r="J91" s="62"/>
       <c r="K91" s="39">
         <v>150.9375</v>
       </c>
@@ -19512,23 +19713,23 @@
     </row>
     <row r="92" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A92" s="10"/>
-      <c r="B92" s="81" t="s">
+      <c r="B92" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="51"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E92" s="70">
+      <c r="E92" s="75">
         <v>42642.605304861099</v>
       </c>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="72">
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="77">
         <v>906</v>
       </c>
-      <c r="J92" s="51"/>
+      <c r="J92" s="62"/>
       <c r="K92" s="36">
         <v>166.0625</v>
       </c>
@@ -19539,23 +19740,23 @@
     </row>
     <row r="93" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A93" s="10"/>
-      <c r="B93" s="82" t="s">
+      <c r="B93" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="51"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E93" s="73">
+      <c r="E93" s="78">
         <v>42642.604704895799</v>
       </c>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="74">
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="79">
         <v>803</v>
       </c>
-      <c r="J93" s="51"/>
+      <c r="J93" s="62"/>
       <c r="K93" s="39">
         <v>166.0625</v>
       </c>
@@ -19566,23 +19767,23 @@
     </row>
     <row r="94" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A94" s="10"/>
-      <c r="B94" s="81" t="s">
+      <c r="B94" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C94" s="51"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E94" s="70">
+      <c r="E94" s="75">
         <v>42642.6041996528</v>
       </c>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="72">
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="77">
         <v>706</v>
       </c>
-      <c r="J94" s="51"/>
+      <c r="J94" s="62"/>
       <c r="K94" s="36">
         <v>137.25</v>
       </c>
@@ -19593,23 +19794,23 @@
     </row>
     <row r="95" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A95" s="10"/>
-      <c r="B95" s="82" t="s">
+      <c r="B95" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="51"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="73">
+      <c r="E95" s="78">
         <v>42642.603695104197</v>
       </c>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="74">
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="79">
         <v>940</v>
       </c>
-      <c r="J95" s="51"/>
+      <c r="J95" s="62"/>
       <c r="K95" s="39">
         <v>137.25</v>
       </c>
@@ -19620,23 +19821,23 @@
     </row>
     <row r="96" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A96" s="10"/>
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C96" s="51"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E96" s="70">
+      <c r="E96" s="75">
         <v>42642.603158946797</v>
       </c>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="72">
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="77">
         <v>846</v>
       </c>
-      <c r="J96" s="51"/>
+      <c r="J96" s="62"/>
       <c r="K96" s="36">
         <v>150.9375</v>
       </c>
@@ -19647,23 +19848,23 @@
     </row>
     <row r="97" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A97" s="10"/>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C97" s="51"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E97" s="73">
+      <c r="E97" s="78">
         <v>42642.602623611099</v>
       </c>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="74">
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="79">
         <v>913</v>
       </c>
-      <c r="J97" s="51"/>
+      <c r="J97" s="62"/>
       <c r="K97" s="39">
         <v>150.9375</v>
       </c>
@@ -19674,23 +19875,23 @@
     </row>
     <row r="98" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A98" s="10"/>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C98" s="51"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E98" s="70">
+      <c r="E98" s="75">
         <v>42642.602195717598</v>
       </c>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="72">
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="77">
         <v>696</v>
       </c>
-      <c r="J98" s="51"/>
+      <c r="J98" s="62"/>
       <c r="K98" s="36">
         <v>124.75</v>
       </c>
@@ -19701,23 +19902,23 @@
     </row>
     <row r="99" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A99" s="10"/>
-      <c r="B99" s="82" t="s">
+      <c r="B99" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="51"/>
+      <c r="C99" s="62"/>
       <c r="D99" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E99" s="73">
+      <c r="E99" s="78">
         <v>42642.601776620402</v>
       </c>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="74">
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="79">
         <v>700</v>
       </c>
-      <c r="J99" s="51"/>
+      <c r="J99" s="62"/>
       <c r="K99" s="39">
         <v>124.75</v>
       </c>
@@ -19728,23 +19929,23 @@
     </row>
     <row r="100" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A100" s="10"/>
-      <c r="B100" s="81" t="s">
+      <c r="B100" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C100" s="51"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E100" s="70">
+      <c r="E100" s="75">
         <v>42642.601315590298</v>
       </c>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="72">
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="77">
         <v>760</v>
       </c>
-      <c r="J100" s="51"/>
+      <c r="J100" s="62"/>
       <c r="K100" s="36">
         <v>137.25</v>
       </c>
@@ -19755,23 +19956,23 @@
     </row>
     <row r="101" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A101" s="10"/>
-      <c r="B101" s="82" t="s">
+      <c r="B101" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C101" s="51"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E101" s="73">
+      <c r="E101" s="78">
         <v>42642.600834375</v>
       </c>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="74">
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="79">
         <v>1016</v>
       </c>
-      <c r="J101" s="51"/>
+      <c r="J101" s="62"/>
       <c r="K101" s="39">
         <v>137.25</v>
       </c>
@@ -19782,23 +19983,23 @@
     </row>
     <row r="102" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A102" s="10"/>
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="51"/>
+      <c r="C102" s="62"/>
       <c r="D102" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="70">
+      <c r="E102" s="75">
         <v>42642.600378588002</v>
       </c>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="72">
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="77">
         <v>796</v>
       </c>
-      <c r="J102" s="51"/>
+      <c r="J102" s="62"/>
       <c r="K102" s="36">
         <v>113.4375</v>
       </c>
@@ -19809,23 +20010,23 @@
     </row>
     <row r="103" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A103" s="10"/>
-      <c r="B103" s="82" t="s">
+      <c r="B103" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="51"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E103" s="73">
+      <c r="E103" s="78">
         <v>42642.599915544</v>
       </c>
-      <c r="F103" s="71"/>
-      <c r="G103" s="71"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="74">
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="79">
         <v>996</v>
       </c>
-      <c r="J103" s="51"/>
+      <c r="J103" s="62"/>
       <c r="K103" s="39">
         <v>113.4375</v>
       </c>
@@ -19836,23 +20037,23 @@
     </row>
     <row r="104" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A104" s="10"/>
-      <c r="B104" s="81" t="s">
+      <c r="B104" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C104" s="51"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="70">
+      <c r="E104" s="75">
         <v>42642.599344479197</v>
       </c>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="72">
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="77">
         <v>806</v>
       </c>
-      <c r="J104" s="51"/>
+      <c r="J104" s="62"/>
       <c r="K104" s="36">
         <v>124.75</v>
       </c>
@@ -19863,23 +20064,23 @@
     </row>
     <row r="105" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A105" s="10"/>
-      <c r="B105" s="82" t="s">
+      <c r="B105" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C105" s="51"/>
+      <c r="C105" s="62"/>
       <c r="D105" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="73">
+      <c r="E105" s="78">
         <v>42642.598741666698</v>
       </c>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="74">
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="79">
         <v>1140</v>
       </c>
-      <c r="J105" s="51"/>
+      <c r="J105" s="62"/>
       <c r="K105" s="39">
         <v>124.75</v>
       </c>
@@ -19890,23 +20091,23 @@
     </row>
     <row r="106" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A106" s="10"/>
-      <c r="B106" s="81" t="s">
+      <c r="B106" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C106" s="51"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E106" s="70">
+      <c r="E106" s="75">
         <v>42625.640297604201</v>
       </c>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="72">
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="77">
         <v>606</v>
       </c>
-      <c r="J106" s="51"/>
+      <c r="J106" s="62"/>
       <c r="K106" s="36">
         <v>113.4375</v>
       </c>
@@ -19917,23 +20118,23 @@
     </row>
     <row r="107" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A107" s="10"/>
-      <c r="B107" s="82" t="s">
+      <c r="B107" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C107" s="51"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E107" s="73">
+      <c r="E107" s="78">
         <v>42625.638901585597</v>
       </c>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="74">
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="79">
         <v>1030</v>
       </c>
-      <c r="J107" s="51"/>
+      <c r="J107" s="62"/>
       <c r="K107" s="39">
         <v>113.4375</v>
       </c>
@@ -19944,23 +20145,23 @@
     </row>
     <row r="108" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A108" s="10"/>
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C108" s="51"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E108" s="70">
+      <c r="E108" s="75">
         <v>42625.637599224501</v>
       </c>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="72">
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="77">
         <v>793</v>
       </c>
-      <c r="J108" s="51"/>
+      <c r="J108" s="62"/>
       <c r="K108" s="36">
         <v>103.125</v>
       </c>
@@ -19971,23 +20172,23 @@
     </row>
     <row r="109" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A109" s="10"/>
-      <c r="B109" s="82" t="s">
+      <c r="B109" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="51"/>
+      <c r="C109" s="62"/>
       <c r="D109" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E109" s="73">
+      <c r="E109" s="78">
         <v>42625.636361226898</v>
       </c>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="74">
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="79">
         <v>630</v>
       </c>
-      <c r="J109" s="51"/>
+      <c r="J109" s="62"/>
       <c r="K109" s="39">
         <v>103.125</v>
       </c>
@@ -19998,23 +20199,23 @@
     </row>
     <row r="110" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A110" s="10"/>
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="51"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E110" s="70">
+      <c r="E110" s="75">
         <v>42625.635030208301</v>
       </c>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="72">
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="77">
         <v>596</v>
       </c>
-      <c r="J110" s="51"/>
+      <c r="J110" s="62"/>
       <c r="K110" s="36">
         <v>103.125</v>
       </c>
@@ -20025,23 +20226,23 @@
     </row>
     <row r="111" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A111" s="10"/>
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C111" s="51"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E111" s="73">
+      <c r="E111" s="78">
         <v>42625.633670949101</v>
       </c>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="74">
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="79">
         <v>713</v>
       </c>
-      <c r="J111" s="51"/>
+      <c r="J111" s="62"/>
       <c r="K111" s="39">
         <v>103.125</v>
       </c>
@@ -20052,23 +20253,23 @@
     </row>
     <row r="112" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A112" s="10"/>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="51"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E112" s="70">
+      <c r="E112" s="75">
         <v>42625.6325202546</v>
       </c>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="72">
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="77">
         <v>970</v>
       </c>
-      <c r="J112" s="51"/>
+      <c r="J112" s="62"/>
       <c r="K112" s="36">
         <v>93.75</v>
       </c>
@@ -20079,23 +20280,23 @@
     </row>
     <row r="113" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A113" s="10"/>
-      <c r="B113" s="82" t="s">
+      <c r="B113" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C113" s="51"/>
+      <c r="C113" s="62"/>
       <c r="D113" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E113" s="73">
+      <c r="E113" s="78">
         <v>42625.631433946801</v>
       </c>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="74">
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="79">
         <v>756</v>
       </c>
-      <c r="J113" s="51"/>
+      <c r="J113" s="62"/>
       <c r="K113" s="39">
         <v>93.75</v>
       </c>
@@ -20106,23 +20307,23 @@
     </row>
     <row r="114" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A114" s="10"/>
-      <c r="B114" s="81" t="s">
+      <c r="B114" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="51"/>
+      <c r="C114" s="62"/>
       <c r="D114" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E114" s="70">
+      <c r="E114" s="75">
         <v>42625.630361076401</v>
       </c>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="72">
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="77">
         <v>1186</v>
       </c>
-      <c r="J114" s="51"/>
+      <c r="J114" s="62"/>
       <c r="K114" s="36">
         <v>93.75</v>
       </c>
@@ -20133,23 +20334,23 @@
     </row>
     <row r="115" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A115" s="10"/>
-      <c r="B115" s="82" t="s">
+      <c r="B115" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C115" s="51"/>
+      <c r="C115" s="62"/>
       <c r="D115" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E115" s="73">
+      <c r="E115" s="78">
         <v>42625.629263229202</v>
       </c>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="74">
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="79">
         <v>616</v>
       </c>
-      <c r="J115" s="51"/>
+      <c r="J115" s="62"/>
       <c r="K115" s="39">
         <v>93.75</v>
       </c>
@@ -20160,23 +20361,23 @@
     </row>
     <row r="116" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A116" s="10"/>
-      <c r="B116" s="81" t="s">
+      <c r="B116" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C116" s="51"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E116" s="70">
+      <c r="E116" s="75">
         <v>42625.628317627299</v>
       </c>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="72">
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="77">
         <v>440</v>
       </c>
-      <c r="J116" s="51"/>
+      <c r="J116" s="62"/>
       <c r="K116" s="36">
         <v>85.1875</v>
       </c>
@@ -20187,23 +20388,23 @@
     </row>
     <row r="117" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A117" s="10"/>
-      <c r="B117" s="82" t="s">
+      <c r="B117" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C117" s="51"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E117" s="73">
+      <c r="E117" s="78">
         <v>42625.6273107292</v>
       </c>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="74">
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="62"/>
+      <c r="I117" s="79">
         <v>1043</v>
       </c>
-      <c r="J117" s="51"/>
+      <c r="J117" s="62"/>
       <c r="K117" s="39">
         <v>85.1875</v>
       </c>
@@ -20214,23 +20415,23 @@
     </row>
     <row r="118" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A118" s="10"/>
-      <c r="B118" s="81" t="s">
+      <c r="B118" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C118" s="51"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E118" s="70">
+      <c r="E118" s="75">
         <v>42625.626257523101</v>
       </c>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="72">
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="77">
         <v>623</v>
       </c>
-      <c r="J118" s="51"/>
+      <c r="J118" s="62"/>
       <c r="K118" s="36">
         <v>85.1875</v>
       </c>
@@ -20241,23 +20442,23 @@
     </row>
     <row r="119" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A119" s="10"/>
-      <c r="B119" s="82" t="s">
+      <c r="B119" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C119" s="51"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E119" s="73">
+      <c r="E119" s="78">
         <v>42625.625163576398</v>
       </c>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="74">
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="79">
         <v>533</v>
       </c>
-      <c r="J119" s="51"/>
+      <c r="J119" s="62"/>
       <c r="K119" s="39">
         <v>85.1875</v>
       </c>
@@ -20268,23 +20469,23 @@
     </row>
     <row r="120" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A120" s="10"/>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C120" s="51"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E120" s="70">
+      <c r="E120" s="75">
         <v>42625.624105208299</v>
       </c>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="72">
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="77">
         <v>606</v>
       </c>
-      <c r="J120" s="51"/>
+      <c r="J120" s="62"/>
       <c r="K120" s="36">
         <v>77.4375</v>
       </c>
@@ -20295,23 +20496,23 @@
     </row>
     <row r="121" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A121" s="10"/>
-      <c r="B121" s="82" t="s">
+      <c r="B121" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C121" s="51"/>
+      <c r="C121" s="62"/>
       <c r="D121" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E121" s="73">
+      <c r="E121" s="78">
         <v>42625.6231126157</v>
       </c>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="74">
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="79">
         <v>556</v>
       </c>
-      <c r="J121" s="51"/>
+      <c r="J121" s="62"/>
       <c r="K121" s="39">
         <v>77.4375</v>
       </c>
@@ -20322,23 +20523,23 @@
     </row>
     <row r="122" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A122" s="10"/>
-      <c r="B122" s="81" t="s">
+      <c r="B122" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C122" s="51"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E122" s="70">
+      <c r="E122" s="75">
         <v>42625.622017245398</v>
       </c>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="72">
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="77">
         <v>1450</v>
       </c>
-      <c r="J122" s="51"/>
+      <c r="J122" s="62"/>
       <c r="K122" s="36">
         <v>77.4375</v>
       </c>
@@ -20349,23 +20550,23 @@
     </row>
     <row r="123" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A123" s="10"/>
-      <c r="B123" s="82" t="s">
+      <c r="B123" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C123" s="51"/>
+      <c r="C123" s="62"/>
       <c r="D123" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E123" s="73">
+      <c r="E123" s="78">
         <v>42625.620873692103</v>
       </c>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="74">
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="79">
         <v>1236</v>
       </c>
-      <c r="J123" s="51"/>
+      <c r="J123" s="62"/>
       <c r="K123" s="39">
         <v>77.4375</v>
       </c>
@@ -20376,23 +20577,23 @@
     </row>
     <row r="124" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A124" s="10"/>
-      <c r="B124" s="81" t="s">
+      <c r="B124" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C124" s="51"/>
+      <c r="C124" s="62"/>
       <c r="D124" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E124" s="70">
+      <c r="E124" s="75">
         <v>42625.620007905098</v>
       </c>
-      <c r="F124" s="71"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="51"/>
-      <c r="I124" s="72">
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="77">
         <v>813</v>
       </c>
-      <c r="J124" s="51"/>
+      <c r="J124" s="62"/>
       <c r="K124" s="36">
         <v>70.4375</v>
       </c>
@@ -20403,23 +20604,23 @@
     </row>
     <row r="125" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A125" s="10"/>
-      <c r="B125" s="82" t="s">
+      <c r="B125" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="51"/>
+      <c r="C125" s="62"/>
       <c r="D125" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E125" s="73">
+      <c r="E125" s="78">
         <v>42625.619239930602</v>
       </c>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="74">
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="79">
         <v>613</v>
       </c>
-      <c r="J125" s="51"/>
+      <c r="J125" s="62"/>
       <c r="K125" s="39">
         <v>70.4375</v>
       </c>
@@ -20430,23 +20631,23 @@
     </row>
     <row r="126" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A126" s="10"/>
-      <c r="B126" s="81" t="s">
+      <c r="B126" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C126" s="51"/>
+      <c r="C126" s="62"/>
       <c r="D126" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E126" s="70">
+      <c r="E126" s="75">
         <v>42625.618440428203</v>
       </c>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="72">
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="62"/>
+      <c r="I126" s="77">
         <v>496</v>
       </c>
-      <c r="J126" s="51"/>
+      <c r="J126" s="62"/>
       <c r="K126" s="36">
         <v>70.4375</v>
       </c>
@@ -20457,23 +20658,23 @@
     </row>
     <row r="127" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A127" s="10"/>
-      <c r="B127" s="82" t="s">
+      <c r="B127" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C127" s="51"/>
+      <c r="C127" s="62"/>
       <c r="D127" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E127" s="73">
+      <c r="E127" s="78">
         <v>42625.617600266203</v>
       </c>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="74">
+      <c r="F127" s="76"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="62"/>
+      <c r="I127" s="79">
         <v>790</v>
       </c>
-      <c r="J127" s="51"/>
+      <c r="J127" s="62"/>
       <c r="K127" s="39">
         <v>70.4375</v>
       </c>
@@ -20484,23 +20685,23 @@
     </row>
     <row r="128" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A128" s="10"/>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C128" s="51"/>
+      <c r="C128" s="62"/>
       <c r="D128" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E128" s="70">
+      <c r="E128" s="75">
         <v>42625.616822835596</v>
       </c>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="72">
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="77">
         <v>893</v>
       </c>
-      <c r="J128" s="51"/>
+      <c r="J128" s="62"/>
       <c r="K128" s="36">
         <v>64</v>
       </c>
@@ -20511,23 +20712,23 @@
     </row>
     <row r="129" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A129" s="10"/>
-      <c r="B129" s="82" t="s">
+      <c r="B129" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C129" s="51"/>
+      <c r="C129" s="62"/>
       <c r="D129" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E129" s="73">
+      <c r="E129" s="78">
         <v>42625.6160492708</v>
       </c>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="74">
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="79">
         <v>1903</v>
       </c>
-      <c r="J129" s="51"/>
+      <c r="J129" s="62"/>
       <c r="K129" s="39">
         <v>64</v>
       </c>
@@ -20538,23 +20739,23 @@
     </row>
     <row r="130" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A130" s="10"/>
-      <c r="B130" s="81" t="s">
+      <c r="B130" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C130" s="51"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E130" s="70">
+      <c r="E130" s="75">
         <v>42625.6152699421</v>
       </c>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="51"/>
-      <c r="I130" s="72">
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="62"/>
+      <c r="I130" s="77">
         <v>1200</v>
       </c>
-      <c r="J130" s="51"/>
+      <c r="J130" s="62"/>
       <c r="K130" s="36">
         <v>64</v>
       </c>
@@ -20565,23 +20766,23 @@
     </row>
     <row r="131" spans="1:15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A131" s="10"/>
-      <c r="B131" s="83" t="s">
+      <c r="B131" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="60"/>
+      <c r="C131" s="65"/>
       <c r="D131" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E131" s="75">
+      <c r="E131" s="80">
         <v>42625.614498067102</v>
       </c>
-      <c r="F131" s="76"/>
-      <c r="G131" s="76"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="77">
+      <c r="F131" s="81"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="82">
         <v>500</v>
       </c>
-      <c r="J131" s="60"/>
+      <c r="J131" s="65"/>
       <c r="K131" s="33">
         <v>64</v>
       </c>
@@ -20609,21 +20810,21 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="10"/>
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C133" s="58"/>
+      <c r="C133" s="60"/>
       <c r="D133" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E133" s="57" t="s">
+      <c r="E133" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F133" s="63"/>
-      <c r="G133" s="63"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="63"/>
-      <c r="J133" s="58"/>
+      <c r="F133" s="69"/>
+      <c r="G133" s="69"/>
+      <c r="H133" s="69"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="60"/>
       <c r="K133" s="20" t="s">
         <v>184</v>
       </c>
@@ -20637,18 +20838,18 @@
     <row r="134" spans="1:15" ht="14.45" customHeight="1">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
-      <c r="C134" s="56" t="s">
+      <c r="C134" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
@@ -20672,21 +20873,21 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="10"/>
-      <c r="B136" s="57" t="s">
+      <c r="B136" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C136" s="58"/>
+      <c r="C136" s="60"/>
       <c r="D136" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E136" s="57" t="s">
+      <c r="E136" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F136" s="63"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
-      <c r="J136" s="58"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="69"/>
+      <c r="J136" s="60"/>
       <c r="K136" s="20" t="s">
         <v>184</v>
       </c>
@@ -21068,11 +21269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21084,9 +21285,10 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="C1" t="s">
         <v>241</v>
       </c>
@@ -21096,8 +21298,11 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21129,7 +21334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -21161,8 +21366,11 @@
       <c r="M3" s="2">
         <v>191578</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -21194,8 +21402,11 @@
       <c r="M4" s="2">
         <v>207665.3333</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -21227,8 +21438,11 @@
       <c r="M5" s="2">
         <v>130905</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -21260,8 +21474,11 @@
       <c r="M6" s="2">
         <v>563169.33330000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -21293,8 +21510,11 @@
       <c r="M7" s="2">
         <v>425302.3333</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -21327,7 +21547,7 @@
         <v>184498.6667</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -21360,7 +21580,7 @@
         <v>13.66666667</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -21393,7 +21613,7 @@
         <v>221626</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -21426,7 +21646,7 @@
         <v>279254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -21459,7 +21679,7 @@
         <v>5036355.6670000004</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -21492,7 +21712,7 @@
         <v>102886.3333</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -21525,7 +21745,7 @@
         <v>166812.6667</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -21558,7 +21778,7 @@
         <v>2815137</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="45" t="s">
         <v>26</v>
       </c>
@@ -21591,7 +21811,7 @@
         <v>11847929</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -21623,8 +21843,11 @@
       <c r="M17" s="2">
         <v>2215238.3330000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="Q17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -21657,7 +21880,7 @@
         <v>304330.6667</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -21690,7 +21913,7 @@
         <v>943011</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -21723,7 +21946,7 @@
         <v>160732.6667</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -21756,7 +21979,7 @@
         <v>148590.3333</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -21789,7 +22012,7 @@
         <v>289004.6667</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -21822,7 +22045,7 @@
         <v>143024</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1">
       <c r="A24" s="45" t="s">
         <v>34</v>
       </c>
@@ -21855,7 +22078,7 @@
         <v>224160</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -21888,7 +22111,7 @@
         <v>242026.6667</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -21921,7 +22144,7 @@
         <v>286173.6667</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -21954,7 +22177,7 @@
         <v>620663.66669999994</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -21987,7 +22210,7 @@
         <v>233274.3333</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -22020,7 +22243,7 @@
         <v>222429.6667</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -22053,7 +22276,7 @@
         <v>197751.3333</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -22101,6 +22324,92 @@
       <c r="H33">
         <f>SUM(H3:H31)</f>
         <v>3291.9026667099997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF136A9-C239-4A25-82F9-70D7F70F023C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="161.42578125" style="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="52" customFormat="1">
+      <c r="A1" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135">
+      <c r="A2" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105">
+      <c r="A3" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
